--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2387206.026059156</v>
+        <v>2385541.747756531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7319166.072938242</v>
+        <v>7319166.072938244</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.8548160679612</v>
+        <v>11.32669091474057</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.0513444767424</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.9970201461921</v>
       </c>
       <c r="G11" t="n">
         <v>280.6179422616526</v>
       </c>
       <c r="H11" t="n">
-        <v>178.8611880106329</v>
+        <v>178.861188010633</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.20456790989127</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U11" t="n">
-        <v>94.91862883889475</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.3619431218937</v>
       </c>
       <c r="X11" t="n">
         <v>237.8520750829497</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.65415805434796</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>40.82947339279636</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>94.3339090676305</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.76605485988159</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.19018679786453</v>
       </c>
       <c r="G12" t="n">
-        <v>3.963272453055605</v>
+        <v>3.963272453055636</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.70992210628417</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984234</v>
       </c>
       <c r="S12" t="n">
-        <v>11.91965888339752</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T12" t="n">
-        <v>62.23473658022257</v>
+        <v>62.23473658022261</v>
       </c>
       <c r="U12" t="n">
-        <v>135.0215390622471</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V12" t="n">
         <v>100.9215615539059</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>119.8159575654003</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.95295458641792</v>
+        <v>47.95295458641795</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>35.36779550310848</v>
       </c>
       <c r="D13" t="n">
-        <v>16.73644742269298</v>
+        <v>16.736447422693</v>
       </c>
       <c r="E13" t="n">
-        <v>14.55493705104979</v>
+        <v>14.55493705104982</v>
       </c>
       <c r="F13" t="n">
-        <v>13.54202242741187</v>
+        <v>13.54202242741189</v>
       </c>
       <c r="G13" t="n">
-        <v>34.85338208644731</v>
+        <v>34.85338208644734</v>
       </c>
       <c r="H13" t="n">
-        <v>19.15830055183618</v>
+        <v>19.15830055183622</v>
       </c>
       <c r="I13" t="n">
-        <v>75.16036235128817</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.20410058840477</v>
+        <v>145.3644629396914</v>
       </c>
       <c r="T13" t="n">
-        <v>90.68903030593238</v>
+        <v>90.68903030593241</v>
       </c>
       <c r="U13" t="n">
-        <v>154.3713543967992</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V13" t="n">
         <v>120.2586177283086</v>
       </c>
       <c r="W13" t="n">
-        <v>154.6439727410716</v>
+        <v>154.6439727410717</v>
       </c>
       <c r="X13" t="n">
-        <v>93.83062979351777</v>
+        <v>93.8306297935178</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.70562775657541</v>
+        <v>86.70562775657544</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>126.6557585341247</v>
       </c>
       <c r="F14" t="n">
         <v>274.9970201461921</v>
       </c>
       <c r="G14" t="n">
-        <v>280.6179422616526</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>13.20456790989127</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>78.93456729087842</v>
       </c>
       <c r="U14" t="n">
-        <v>35.93040696564438</v>
+        <v>119.2421657396801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>195.8732328746156</v>
       </c>
       <c r="W14" t="n">
-        <v>217.3619431218936</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.65415805434799</v>
       </c>
       <c r="C15" t="n">
-        <v>40.82947339279636</v>
+        <v>40.82947339279639</v>
       </c>
       <c r="D15" t="n">
-        <v>15.56603996911937</v>
+        <v>15.5660399691194</v>
       </c>
       <c r="E15" t="n">
-        <v>25.76605485988156</v>
+        <v>25.76605485988159</v>
       </c>
       <c r="F15" t="n">
-        <v>13.1901867978645</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>89.68170470955185</v>
+        <v>135.842298048575</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.950563157984234</v>
       </c>
       <c r="S15" t="n">
-        <v>11.91965888339752</v>
+        <v>90.68752798190863</v>
       </c>
       <c r="T15" t="n">
-        <v>62.23473658022257</v>
+        <v>62.23473658022261</v>
       </c>
       <c r="U15" t="n">
         <v>225.8426176655383</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>73.80367018178501</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.95295458641792</v>
+        <v>47.95295458641795</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>35.36779550310848</v>
       </c>
       <c r="D16" t="n">
-        <v>16.73644742269298</v>
+        <v>16.736447422693</v>
       </c>
       <c r="E16" t="n">
-        <v>14.55493705104979</v>
+        <v>14.55493705104982</v>
       </c>
       <c r="F16" t="n">
-        <v>13.54202242741187</v>
+        <v>13.54202242741189</v>
       </c>
       <c r="G16" t="n">
-        <v>34.85338208644731</v>
+        <v>34.85338208644734</v>
       </c>
       <c r="H16" t="n">
-        <v>19.15830055183618</v>
+        <v>19.15830055183622</v>
       </c>
       <c r="I16" t="n">
-        <v>75.16036235128817</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S16" t="n">
-        <v>70.20410058840477</v>
+        <v>156.5400563574026</v>
       </c>
       <c r="T16" t="n">
-        <v>90.68903030593238</v>
+        <v>90.68903030593241</v>
       </c>
       <c r="U16" t="n">
         <v>154.3713543967992</v>
@@ -1825,13 +1825,13 @@
         <v>120.2586177283086</v>
       </c>
       <c r="W16" t="n">
-        <v>154.6439727410716</v>
+        <v>154.6439727410717</v>
       </c>
       <c r="X16" t="n">
-        <v>93.83062979351777</v>
+        <v>93.8306297935178</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.70562775657541</v>
+        <v>86.70562775657544</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1853,13 @@
         <v>171.116777185864</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>196.0624528553137</v>
       </c>
       <c r="G17" t="n">
-        <v>201.6833749707741</v>
+        <v>201.6833749707742</v>
       </c>
       <c r="H17" t="n">
-        <v>99.92662071975448</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>40.30759844880165</v>
+        <v>40.30759844880168</v>
       </c>
       <c r="V17" t="n">
         <v>116.9386655837371</v>
       </c>
       <c r="W17" t="n">
-        <v>112.95102093273</v>
+        <v>16.81518879717148</v>
       </c>
       <c r="X17" t="n">
-        <v>158.9175077920712</v>
+        <v>158.9175077920713</v>
       </c>
       <c r="Y17" t="n">
         <v>175.4243457696558</v>
@@ -1923,22 +1923,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>57.94718356389025</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.950563157984234</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U18" t="n">
-        <v>15.02902477914046</v>
+        <v>15.02902477914049</v>
       </c>
       <c r="V18" t="n">
-        <v>21.98699426302747</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>229.3883558628689</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21.35616667629038</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T19" t="n">
-        <v>11.75446301505396</v>
+        <v>11.75446301505399</v>
       </c>
       <c r="U19" t="n">
-        <v>165.1991474697769</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>41.32405043743023</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.89606250263938</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>7.771060465697019</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2090,13 @@
         <v>171.116777185864</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0624528553136</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>201.6833749707741</v>
       </c>
       <c r="H20" t="n">
-        <v>99.92662071975448</v>
+        <v>99.92662071975451</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>40.30759844880168</v>
       </c>
       <c r="V20" t="n">
-        <v>74.13483210995557</v>
+        <v>116.9386655837371</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>112.9510209327299</v>
       </c>
       <c r="X20" t="n">
-        <v>158.9175077920712</v>
+        <v>158.9175077920713</v>
       </c>
       <c r="Y20" t="n">
         <v>175.4243457696558</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>13.18808157634535</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.842298048575</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>66.02564518504674</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V21" t="n">
-        <v>21.98699426302747</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>21.35616667629196</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.703432177808</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T22" t="n">
-        <v>20.47540559580776</v>
+        <v>11.75446301505398</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2503799923186</v>
+        <v>75.43678710592083</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>75.70940545019323</v>
       </c>
       <c r="X22" t="n">
-        <v>14.89606250263935</v>
+        <v>14.89606250263938</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.771060465696991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,13 +2327,13 @@
         <v>171.116777185864</v>
       </c>
       <c r="F23" t="n">
-        <v>196.0624528553136</v>
+        <v>196.0624528553137</v>
       </c>
       <c r="G23" t="n">
         <v>201.6833749707741</v>
       </c>
       <c r="H23" t="n">
-        <v>99.92662071975448</v>
+        <v>99.92662071975451</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>40.30759844880165</v>
+        <v>40.30759844880168</v>
       </c>
       <c r="V23" t="n">
         <v>116.9386655837371</v>
@@ -2381,7 +2381,7 @@
         <v>138.4273758310152</v>
       </c>
       <c r="X23" t="n">
-        <v>158.9175077920712</v>
+        <v>158.9175077920713</v>
       </c>
       <c r="Y23" t="n">
         <v>175.4243457696558</v>
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>54.97131470818913</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.842298048575</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.73682805041005</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S24" t="n">
-        <v>68.67239843109114</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.113762175742</v>
       </c>
       <c r="U24" t="n">
-        <v>15.02902477914046</v>
+        <v>225.8426176655383</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7324076819667</v>
+        <v>24.45780670716687</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.6017921469332</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.0831261839242</v>
       </c>
       <c r="T25" t="n">
-        <v>11.75446301505396</v>
+        <v>222.5680559014517</v>
       </c>
       <c r="U25" t="n">
-        <v>75.4367871059208</v>
+        <v>75.43678710592083</v>
       </c>
       <c r="V25" t="n">
-        <v>94.12617822261497</v>
+        <v>41.32405043743023</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>14.89606250263938</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.771060465696991</v>
+        <v>7.771060465697019</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.8056463152739</v>
       </c>
       <c r="I26" t="n">
-        <v>23.37188754090401</v>
+        <v>23.37188754090398</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.14902621453214</v>
+        <v>66.14902621453213</v>
       </c>
       <c r="T26" t="n">
         <v>131.8790255955194</v>
@@ -2649,10 +2649,10 @@
         <v>135.842298048575</v>
       </c>
       <c r="H27" t="n">
-        <v>97.73682805041007</v>
+        <v>97.73682805041005</v>
       </c>
       <c r="I27" t="n">
-        <v>37.70992210628418</v>
+        <v>37.70992210628417</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.950563157984135</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S27" t="n">
         <v>143.7986844789169</v>
@@ -2713,25 +2713,25 @@
         <v>100.8974128910589</v>
       </c>
       <c r="C28" t="n">
-        <v>88.31225380774941</v>
+        <v>88.31225380774943</v>
       </c>
       <c r="D28" t="n">
-        <v>69.68090572733394</v>
+        <v>69.68090572733395</v>
       </c>
       <c r="E28" t="n">
-        <v>67.49939535569075</v>
+        <v>67.49939535569077</v>
       </c>
       <c r="F28" t="n">
-        <v>66.48648073205283</v>
+        <v>66.48648073205284</v>
       </c>
       <c r="G28" t="n">
-        <v>87.79784039108827</v>
+        <v>87.79784039108829</v>
       </c>
       <c r="H28" t="n">
         <v>72.10275885647714</v>
       </c>
       <c r="I28" t="n">
-        <v>38.66722485605479</v>
+        <v>38.6672248560548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76886488692961</v>
+        <v>41.76886488692962</v>
       </c>
       <c r="S28" t="n">
         <v>123.1485588930457</v>
       </c>
       <c r="T28" t="n">
-        <v>143.6334886105733</v>
+        <v>143.6334886105734</v>
       </c>
       <c r="U28" t="n">
         <v>207.3158127014402</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.14902621453214</v>
+        <v>66.14902621453213</v>
       </c>
       <c r="T29" t="n">
         <v>131.8790255955194</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S30" t="n">
         <v>143.7986844789169</v>
@@ -2950,25 +2950,25 @@
         <v>100.8974128910589</v>
       </c>
       <c r="C31" t="n">
-        <v>88.31225380774941</v>
+        <v>88.31225380774943</v>
       </c>
       <c r="D31" t="n">
-        <v>69.68090572733394</v>
+        <v>69.68090572733395</v>
       </c>
       <c r="E31" t="n">
-        <v>67.49939535569075</v>
+        <v>67.49939535569077</v>
       </c>
       <c r="F31" t="n">
-        <v>66.48648073205283</v>
+        <v>66.48648073205284</v>
       </c>
       <c r="G31" t="n">
-        <v>87.79784039108827</v>
+        <v>87.79784039108829</v>
       </c>
       <c r="H31" t="n">
-        <v>72.10275885647714</v>
+        <v>72.10275885647715</v>
       </c>
       <c r="I31" t="n">
-        <v>38.66722485605479</v>
+        <v>38.6672248560548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>303.7992743726022</v>
       </c>
       <c r="C32" t="n">
-        <v>286.3383244801291</v>
+        <v>286.3383244801292</v>
       </c>
       <c r="D32" t="n">
-        <v>275.7484743298045</v>
+        <v>275.7484743298046</v>
       </c>
       <c r="E32" t="n">
         <v>302.9958027813834</v>
       </c>
       <c r="F32" t="n">
-        <v>327.941478450833</v>
+        <v>327.9414784508331</v>
       </c>
       <c r="G32" t="n">
         <v>333.5624005662935</v>
@@ -3047,7 +3047,7 @@
         <v>231.8056463152739</v>
       </c>
       <c r="I32" t="n">
-        <v>23.371887540904</v>
+        <v>23.37188754090403</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.14902621453217</v>
+        <v>66.14902621453214</v>
       </c>
       <c r="T32" t="n">
         <v>131.8790255955194</v>
       </c>
       <c r="U32" t="n">
-        <v>172.186624044321</v>
+        <v>172.1866240443211</v>
       </c>
       <c r="V32" t="n">
-        <v>248.8176911792565</v>
+        <v>248.8176911792555</v>
       </c>
       <c r="W32" t="n">
         <v>270.3064014265346</v>
       </c>
       <c r="X32" t="n">
-        <v>290.7965333875906</v>
+        <v>290.7965333875907</v>
       </c>
       <c r="Y32" t="n">
         <v>307.3033713651752</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S33" t="n">
         <v>143.7986844789169</v>
@@ -3187,25 +3187,25 @@
         <v>100.8974128910589</v>
       </c>
       <c r="C34" t="n">
-        <v>88.31225380774943</v>
+        <v>88.31225380774946</v>
       </c>
       <c r="D34" t="n">
-        <v>69.68090572733395</v>
+        <v>69.68090572733398</v>
       </c>
       <c r="E34" t="n">
-        <v>67.49939535569077</v>
+        <v>67.49939535569079</v>
       </c>
       <c r="F34" t="n">
-        <v>66.48648073205284</v>
+        <v>66.48648073205287</v>
       </c>
       <c r="G34" t="n">
-        <v>87.79784039108829</v>
+        <v>87.79784039108831</v>
       </c>
       <c r="H34" t="n">
-        <v>72.10275885647715</v>
+        <v>72.10275885647717</v>
       </c>
       <c r="I34" t="n">
-        <v>38.66722485605481</v>
+        <v>38.66722485605483</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76886488692962</v>
+        <v>41.76886488692965</v>
       </c>
       <c r="S34" t="n">
-        <v>123.1485588930457</v>
+        <v>123.1485588930458</v>
       </c>
       <c r="T34" t="n">
-        <v>143.6334886105733</v>
+        <v>143.6334886105734</v>
       </c>
       <c r="U34" t="n">
         <v>207.3158127014402</v>
@@ -3250,7 +3250,7 @@
         <v>207.5884310457126</v>
       </c>
       <c r="X34" t="n">
-        <v>146.7750880981587</v>
+        <v>146.7750880981588</v>
       </c>
       <c r="Y34" t="n">
         <v>139.6500860612164</v>
@@ -3320,7 +3320,7 @@
         <v>58.33025019024751</v>
       </c>
       <c r="U35" t="n">
-        <v>98.63784863904918</v>
+        <v>98.6378486390492</v>
       </c>
       <c r="V35" t="n">
         <v>175.2689157739846</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S36" t="n">
         <v>143.7986844789169</v>
@@ -3424,7 +3424,7 @@
         <v>27.34863748578704</v>
       </c>
       <c r="C37" t="n">
-        <v>14.76347840247757</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7324076819667</v>
+        <v>14.24906498581643</v>
       </c>
       <c r="H37" t="n">
-        <v>151.0373261473555</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>49.59978348777389</v>
       </c>
       <c r="T37" t="n">
-        <v>222.5680559014517</v>
+        <v>70.0847132053015</v>
       </c>
       <c r="U37" t="n">
-        <v>154.8372921626196</v>
+        <v>153.3912756138249</v>
       </c>
       <c r="V37" t="n">
         <v>99.65430062767774</v>
       </c>
       <c r="W37" t="n">
-        <v>134.0396556404407</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>73.22631269288689</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.10131065594453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>58.33025019024751</v>
       </c>
       <c r="U38" t="n">
-        <v>98.63784863904918</v>
+        <v>98.6378486390492</v>
       </c>
       <c r="V38" t="n">
         <v>175.2689157739846</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S39" t="n">
         <v>143.7986844789169</v>
@@ -3661,10 +3661,10 @@
         <v>27.34863748578704</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>14.76347840247757</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>19.62423831765661</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>70.0847132053015</v>
       </c>
       <c r="U40" t="n">
-        <v>133.7670372961683</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V40" t="n">
-        <v>119.2785389453343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>73.22631269288689</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>66.10131065594453</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>58.33025019024751</v>
       </c>
       <c r="U41" t="n">
-        <v>98.63784863904918</v>
+        <v>98.6378486390492</v>
       </c>
       <c r="V41" t="n">
         <v>175.2689157739846</v>
@@ -3834,7 +3834,7 @@
         <v>135.842298048575</v>
       </c>
       <c r="H42" t="n">
-        <v>97.73682805040994</v>
+        <v>97.73682805041005</v>
       </c>
       <c r="I42" t="n">
         <v>37.70992210628417</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S42" t="n">
         <v>143.7986844789169</v>
@@ -3901,7 +3901,7 @@
         <v>14.76347840247757</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.0831261839242</v>
+        <v>49.59978348777389</v>
       </c>
       <c r="T43" t="n">
         <v>222.5680559014517</v>
       </c>
       <c r="U43" t="n">
-        <v>157.2591452917628</v>
+        <v>286.2503799923186</v>
       </c>
       <c r="V43" t="n">
-        <v>99.65430062767774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>134.0396556404407</v>
+        <v>153.6638939580975</v>
       </c>
       <c r="X43" t="n">
         <v>73.22631269288689</v>
@@ -3980,7 +3980,7 @@
         <v>212.7895490748573</v>
       </c>
       <c r="D44" t="n">
-        <v>202.1996989245335</v>
+        <v>202.1996989245328</v>
       </c>
       <c r="E44" t="n">
         <v>229.4470273761115</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.33025019024751</v>
+        <v>58.3302501902475</v>
       </c>
       <c r="U44" t="n">
         <v>98.63784863904918</v>
@@ -4071,7 +4071,7 @@
         <v>135.842298048575</v>
       </c>
       <c r="H45" t="n">
-        <v>97.73682805041005</v>
+        <v>97.73682805040907</v>
       </c>
       <c r="I45" t="n">
         <v>37.70992210628417</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.950563157984121</v>
+        <v>6.950563157984107</v>
       </c>
       <c r="S45" t="n">
         <v>143.7986844789169</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.34863748578704</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>14.76347840247757</v>
@@ -4141,22 +4141,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.05283198638426</v>
+        <v>14.24906498581643</v>
       </c>
       <c r="H46" t="n">
-        <v>151.0373261473555</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.378162588683665</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>49.59978348777389</v>
+        <v>69.22402180543052</v>
       </c>
       <c r="T46" t="n">
         <v>70.0847132053015</v>
@@ -4192,13 +4192,13 @@
         <v>133.7670372961683</v>
       </c>
       <c r="V46" t="n">
-        <v>99.65430062767774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>134.0396556404407</v>
       </c>
       <c r="X46" t="n">
-        <v>73.22631269288689</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>66.10131065594453</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>748.5983955988813</v>
+        <v>773.7960477902446</v>
       </c>
       <c r="C11" t="n">
-        <v>748.5983955988813</v>
+        <v>773.7960477902446</v>
       </c>
       <c r="D11" t="n">
-        <v>748.5983955988813</v>
+        <v>773.7960477902446</v>
       </c>
       <c r="E11" t="n">
-        <v>496.0212799658082</v>
+        <v>773.7960477902446</v>
       </c>
       <c r="F11" t="n">
         <v>496.0212799658082</v>
@@ -5033,28 +5033,28 @@
         <v>212.568813034846</v>
       </c>
       <c r="H11" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I11" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J11" t="n">
-        <v>88.42033145849213</v>
+        <v>88.42033145849187</v>
       </c>
       <c r="K11" t="n">
-        <v>223.8667568317973</v>
+        <v>371.2852043035859</v>
       </c>
       <c r="L11" t="n">
-        <v>428.8017863575361</v>
+        <v>576.2202338293242</v>
       </c>
       <c r="M11" t="n">
-        <v>688.500930901816</v>
+        <v>835.9193783736035</v>
       </c>
       <c r="N11" t="n">
-        <v>957.0160874907517</v>
+        <v>1104.434534962539</v>
       </c>
       <c r="O11" t="n">
-        <v>1197.232074416836</v>
+        <v>1344.650521888622</v>
       </c>
       <c r="P11" t="n">
         <v>1515.168308277803</v>
@@ -5066,25 +5066,25 @@
         <v>1595.04731787195</v>
       </c>
       <c r="S11" t="n">
-        <v>1595.04731787195</v>
+        <v>1581.709370488221</v>
       </c>
       <c r="T11" t="n">
-        <v>1595.04731787195</v>
+        <v>1501.977484335818</v>
       </c>
       <c r="U11" t="n">
-        <v>1499.169915004381</v>
+        <v>1501.977484335818</v>
       </c>
       <c r="V11" t="n">
-        <v>1499.169915004381</v>
+        <v>1501.977484335818</v>
       </c>
       <c r="W11" t="n">
-        <v>1499.169915004381</v>
+        <v>1282.419966030875</v>
       </c>
       <c r="X11" t="n">
-        <v>1258.915293708473</v>
+        <v>1042.165344734967</v>
       </c>
       <c r="Y11" t="n">
-        <v>1001.987098697832</v>
+        <v>785.2371497243261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>569.9433972317418</v>
+        <v>344.9937970309218</v>
       </c>
       <c r="C12" t="n">
-        <v>528.7015049157858</v>
+        <v>170.5407677497948</v>
       </c>
       <c r="D12" t="n">
-        <v>379.7670952545346</v>
+        <v>75.2539909138044</v>
       </c>
       <c r="E12" t="n">
-        <v>220.5296402490791</v>
+        <v>49.22767287351996</v>
       </c>
       <c r="F12" t="n">
-        <v>73.99508227596404</v>
+        <v>35.904251865576</v>
       </c>
       <c r="G12" t="n">
-        <v>69.99177676782706</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H12" t="n">
-        <v>69.99177676782706</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I12" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J12" t="n">
-        <v>171.5757829570878</v>
+        <v>171.5757829570877</v>
       </c>
       <c r="K12" t="n">
-        <v>294.4432205071543</v>
+        <v>275.1025842588987</v>
       </c>
       <c r="L12" t="n">
-        <v>479.9703220134008</v>
+        <v>460.6296857651449</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8285668954115</v>
+        <v>696.4879306471552</v>
       </c>
       <c r="N12" t="n">
-        <v>972.337922617085</v>
+        <v>1091.262141820463</v>
       </c>
       <c r="O12" t="n">
-        <v>1184.774074733417</v>
+        <v>1303.698293936794</v>
       </c>
       <c r="P12" t="n">
-        <v>1335.939749265497</v>
+        <v>1543.916264123987</v>
       </c>
       <c r="Q12" t="n">
         <v>1595.04731787195</v>
       </c>
       <c r="R12" t="n">
-        <v>1588.0265470053</v>
+        <v>1588.026547005299</v>
       </c>
       <c r="S12" t="n">
-        <v>1575.986487527121</v>
+        <v>1442.775350561948</v>
       </c>
       <c r="T12" t="n">
-        <v>1513.123117244067</v>
+        <v>1379.911980278895</v>
       </c>
       <c r="U12" t="n">
-        <v>1376.737724251898</v>
+        <v>1151.788124051079</v>
       </c>
       <c r="V12" t="n">
-        <v>1274.796752985327</v>
+        <v>1049.847152784507</v>
       </c>
       <c r="W12" t="n">
-        <v>1020.559396257125</v>
+        <v>928.8209330214767</v>
       </c>
       <c r="X12" t="n">
-        <v>812.7078960515926</v>
+        <v>720.9694328159438</v>
       </c>
       <c r="Y12" t="n">
-        <v>604.9475972866387</v>
+        <v>513.2091340509899</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.6002120032513</v>
+        <v>167.4695171074862</v>
       </c>
       <c r="C13" t="n">
-        <v>207.6640290753444</v>
+        <v>131.7444711447504</v>
       </c>
       <c r="D13" t="n">
-        <v>190.7585266281797</v>
+        <v>114.8389686975857</v>
       </c>
       <c r="E13" t="n">
-        <v>176.0565700109577</v>
+        <v>100.1370120803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.3777594782185</v>
+        <v>86.45820154762441</v>
       </c>
       <c r="G13" t="n">
-        <v>127.1723230272616</v>
+        <v>51.2527650966675</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8205042880331</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I13" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J13" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="K13" t="n">
-        <v>154.6150636799325</v>
+        <v>154.6150636799323</v>
       </c>
       <c r="L13" t="n">
-        <v>367.1733194638068</v>
+        <v>367.1733194638064</v>
       </c>
       <c r="M13" t="n">
-        <v>601.6753204158033</v>
+        <v>601.6753204158026</v>
       </c>
       <c r="N13" t="n">
-        <v>836.0360043447583</v>
+        <v>836.0360043447574</v>
       </c>
       <c r="O13" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814544</v>
       </c>
       <c r="P13" t="n">
-        <v>1184.491844743244</v>
+        <v>1184.491844743243</v>
       </c>
       <c r="Q13" t="n">
-        <v>1203.525755333583</v>
+        <v>1203.525755333581</v>
       </c>
       <c r="R13" t="n">
-        <v>1203.525755333583</v>
+        <v>1203.525755333581</v>
       </c>
       <c r="S13" t="n">
-        <v>1132.612522416002</v>
+        <v>1056.692964485408</v>
       </c>
       <c r="T13" t="n">
-        <v>1041.007441298898</v>
+        <v>965.0878833683046</v>
       </c>
       <c r="U13" t="n">
-        <v>885.0767802920304</v>
+        <v>675.9460853962655</v>
       </c>
       <c r="V13" t="n">
-        <v>763.6034290513146</v>
+        <v>554.4727341555497</v>
       </c>
       <c r="W13" t="n">
-        <v>607.3973959795251</v>
+        <v>398.2667010837602</v>
       </c>
       <c r="X13" t="n">
-        <v>512.6189820466789</v>
+        <v>303.4882871509139</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0375398683199</v>
+        <v>215.9068449725548</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>828.8795610880784</v>
+        <v>673.3622037875449</v>
       </c>
       <c r="C14" t="n">
-        <v>593.1281811128376</v>
+        <v>437.6108238123045</v>
       </c>
       <c r="D14" t="n">
-        <v>593.1281811128376</v>
+        <v>437.6108238123045</v>
       </c>
       <c r="E14" t="n">
-        <v>593.1281811128376</v>
+        <v>309.6757141818755</v>
       </c>
       <c r="F14" t="n">
-        <v>315.3534132884012</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="G14" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H14" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J14" t="n">
-        <v>88.42033145849213</v>
+        <v>88.42033145849187</v>
       </c>
       <c r="K14" t="n">
-        <v>223.8667568317973</v>
+        <v>223.8667568317967</v>
       </c>
       <c r="L14" t="n">
-        <v>428.8017863575361</v>
+        <v>428.801786357535</v>
       </c>
       <c r="M14" t="n">
-        <v>688.500930901816</v>
+        <v>688.5009309018143</v>
       </c>
       <c r="N14" t="n">
-        <v>957.0160874907517</v>
+        <v>957.0160874907494</v>
       </c>
       <c r="O14" t="n">
-        <v>1197.232074416836</v>
+        <v>1344.650521888622</v>
       </c>
       <c r="P14" t="n">
-        <v>1367.749860806017</v>
+        <v>1515.168308277803</v>
       </c>
       <c r="Q14" t="n">
         <v>1595.04731787195</v>
@@ -5303,25 +5303,25 @@
         <v>1595.04731787195</v>
       </c>
       <c r="S14" t="n">
-        <v>1595.04731787195</v>
+        <v>1581.709370488221</v>
       </c>
       <c r="T14" t="n">
-        <v>1595.04731787195</v>
+        <v>1501.977484335819</v>
       </c>
       <c r="U14" t="n">
-        <v>1558.753977502613</v>
+        <v>1381.530852275536</v>
       </c>
       <c r="V14" t="n">
-        <v>1558.753977502613</v>
+        <v>1183.679101897136</v>
       </c>
       <c r="W14" t="n">
-        <v>1339.19645919767</v>
+        <v>1183.679101897136</v>
       </c>
       <c r="X14" t="n">
-        <v>1339.19645919767</v>
+        <v>1183.679101897136</v>
       </c>
       <c r="Y14" t="n">
-        <v>1082.268264187029</v>
+        <v>926.7509068864956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>218.8034309324023</v>
+        <v>398.6414298561826</v>
       </c>
       <c r="C15" t="n">
-        <v>177.5615386164464</v>
+        <v>357.3995375402267</v>
       </c>
       <c r="D15" t="n">
-        <v>161.8382659203662</v>
+        <v>341.6762648441465</v>
       </c>
       <c r="E15" t="n">
-        <v>135.8119478800818</v>
+        <v>315.6499468038621</v>
       </c>
       <c r="F15" t="n">
-        <v>122.4885268721379</v>
+        <v>169.115388830747</v>
       </c>
       <c r="G15" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H15" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I15" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J15" t="n">
-        <v>171.5757829570878</v>
+        <v>46.74565797008292</v>
       </c>
       <c r="K15" t="n">
-        <v>294.4432205071543</v>
+        <v>150.2724592718939</v>
       </c>
       <c r="L15" t="n">
-        <v>479.9703220134008</v>
+        <v>335.7995607781402</v>
       </c>
       <c r="M15" t="n">
-        <v>715.8285668954115</v>
+        <v>571.6578056601504</v>
       </c>
       <c r="N15" t="n">
-        <v>972.337922617085</v>
+        <v>828.1671613818235</v>
       </c>
       <c r="O15" t="n">
         <v>1184.774074733417</v>
       </c>
       <c r="P15" t="n">
-        <v>1335.939749265497</v>
+        <v>1335.939749265496</v>
       </c>
       <c r="Q15" t="n">
         <v>1595.04731787195</v>
       </c>
       <c r="R15" t="n">
-        <v>1595.04731787195</v>
+        <v>1588.026547005299</v>
       </c>
       <c r="S15" t="n">
-        <v>1583.007258393771</v>
+        <v>1496.422983387209</v>
       </c>
       <c r="T15" t="n">
-        <v>1520.143888110718</v>
+        <v>1433.559613104156</v>
       </c>
       <c r="U15" t="n">
-        <v>1292.020031882901</v>
+        <v>1205.43575687634</v>
       </c>
       <c r="V15" t="n">
-        <v>1056.867923651159</v>
+        <v>970.283648644597</v>
       </c>
       <c r="W15" t="n">
-        <v>802.6305669229571</v>
+        <v>716.0462919163953</v>
       </c>
       <c r="X15" t="n">
-        <v>594.7790667174243</v>
+        <v>508.1947917108624</v>
       </c>
       <c r="Y15" t="n">
-        <v>387.0187679524703</v>
+        <v>433.6456299110796</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.6002120032513</v>
+        <v>167.4695171074862</v>
       </c>
       <c r="C16" t="n">
-        <v>207.6640290753444</v>
+        <v>131.7444711447504</v>
       </c>
       <c r="D16" t="n">
-        <v>190.7585266281797</v>
+        <v>114.8389686975857</v>
       </c>
       <c r="E16" t="n">
-        <v>176.0565700109577</v>
+        <v>100.1370120803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.3777594782185</v>
+        <v>86.45820154762441</v>
       </c>
       <c r="G16" t="n">
-        <v>127.1723230272616</v>
+        <v>51.2527650966675</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8205042880331</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I16" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J16" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="K16" t="n">
-        <v>154.6150636799325</v>
+        <v>154.6150636799323</v>
       </c>
       <c r="L16" t="n">
-        <v>367.1733194638068</v>
+        <v>367.1733194638064</v>
       </c>
       <c r="M16" t="n">
-        <v>601.6753204158033</v>
+        <v>601.6753204158026</v>
       </c>
       <c r="N16" t="n">
-        <v>836.0360043447583</v>
+        <v>836.0360043447574</v>
       </c>
       <c r="O16" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814544</v>
       </c>
       <c r="P16" t="n">
-        <v>1184.491844743244</v>
+        <v>1184.491844743243</v>
       </c>
       <c r="Q16" t="n">
-        <v>1203.525755333583</v>
+        <v>1203.525755333581</v>
       </c>
       <c r="R16" t="n">
-        <v>1203.525755333583</v>
+        <v>1081.603096568118</v>
       </c>
       <c r="S16" t="n">
-        <v>1132.612522416002</v>
+        <v>923.4818275202369</v>
       </c>
       <c r="T16" t="n">
-        <v>1041.007441298898</v>
+        <v>831.8767464031334</v>
       </c>
       <c r="U16" t="n">
-        <v>885.0767802920304</v>
+        <v>675.9460853962655</v>
       </c>
       <c r="V16" t="n">
-        <v>763.6034290513146</v>
+        <v>554.4727341555497</v>
       </c>
       <c r="W16" t="n">
-        <v>607.3973959795251</v>
+        <v>398.2667010837602</v>
       </c>
       <c r="X16" t="n">
-        <v>512.6189820466789</v>
+        <v>303.4882871509139</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.0375398683199</v>
+        <v>215.9068449725548</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>810.7449064536891</v>
+        <v>907.8518076007184</v>
       </c>
       <c r="C17" t="n">
-        <v>654.7254126308509</v>
+        <v>751.8323137778802</v>
       </c>
       <c r="D17" t="n">
-        <v>509.4027371416739</v>
+        <v>606.5096382887033</v>
       </c>
       <c r="E17" t="n">
-        <v>336.5575076610033</v>
+        <v>433.6644088080326</v>
       </c>
       <c r="F17" t="n">
-        <v>336.5575076610033</v>
+        <v>235.6215271359987</v>
       </c>
       <c r="G17" t="n">
-        <v>132.8369268824435</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H17" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I17" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J17" t="n">
-        <v>235.8387789302787</v>
+        <v>88.42033145849187</v>
       </c>
       <c r="K17" t="n">
-        <v>371.2852043035839</v>
+        <v>223.8667568317967</v>
       </c>
       <c r="L17" t="n">
-        <v>576.2202338293226</v>
+        <v>428.801786357535</v>
       </c>
       <c r="M17" t="n">
-        <v>835.9193783736025</v>
+        <v>823.5759975308425</v>
       </c>
       <c r="N17" t="n">
-        <v>1104.434534962538</v>
+        <v>1104.434534962539</v>
       </c>
       <c r="O17" t="n">
         <v>1344.650521888622</v>
@@ -5552,13 +5552,13 @@
         <v>1436.212707738073</v>
       </c>
       <c r="W17" t="n">
-        <v>1322.120767401982</v>
+        <v>1419.227668549011</v>
       </c>
       <c r="X17" t="n">
-        <v>1161.598032258476</v>
+        <v>1258.704933405505</v>
       </c>
       <c r="Y17" t="n">
-        <v>984.4017234002373</v>
+        <v>1081.508624547267</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>719.592906928782</v>
+        <v>180.8353560186902</v>
       </c>
       <c r="C18" t="n">
-        <v>545.139877647655</v>
+        <v>180.8353560186902</v>
       </c>
       <c r="D18" t="n">
-        <v>396.2054679864037</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="E18" t="n">
-        <v>236.9680129809482</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="F18" t="n">
-        <v>90.4334550078332</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="G18" t="n">
-        <v>90.4334550078332</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H18" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I18" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J18" t="n">
-        <v>46.74565797008307</v>
+        <v>46.74565797008292</v>
       </c>
       <c r="K18" t="n">
-        <v>150.2724592718943</v>
+        <v>150.2724592718939</v>
       </c>
       <c r="L18" t="n">
-        <v>335.799560778141</v>
+        <v>335.7995607781402</v>
       </c>
       <c r="M18" t="n">
-        <v>571.6578056601517</v>
+        <v>571.6578056601504</v>
       </c>
       <c r="N18" t="n">
-        <v>828.1671613818252</v>
+        <v>828.1671613818235</v>
       </c>
       <c r="O18" t="n">
-        <v>1040.603313498157</v>
+        <v>1149.142052950679</v>
       </c>
       <c r="P18" t="n">
-        <v>1435.377524671465</v>
+        <v>1543.916264123987</v>
       </c>
       <c r="Q18" t="n">
         <v>1595.04731787195</v>
       </c>
       <c r="R18" t="n">
-        <v>1595.04731787195</v>
+        <v>1588.026547005299</v>
       </c>
       <c r="S18" t="n">
-        <v>1595.04731787195</v>
+        <v>1442.775350561948</v>
       </c>
       <c r="T18" t="n">
-        <v>1595.04731787195</v>
+        <v>1246.700843313724</v>
       </c>
       <c r="U18" t="n">
-        <v>1579.866484761707</v>
+        <v>1231.520010203481</v>
       </c>
       <c r="V18" t="n">
-        <v>1557.657399647538</v>
+        <v>996.3679019717388</v>
       </c>
       <c r="W18" t="n">
-        <v>1303.420042919337</v>
+        <v>764.6624920092449</v>
       </c>
       <c r="X18" t="n">
-        <v>1095.568542713804</v>
+        <v>556.8109918037121</v>
       </c>
       <c r="Y18" t="n">
-        <v>887.8082439488501</v>
+        <v>349.0506930387583</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.90094635743901</v>
+        <v>222.4090148169524</v>
       </c>
       <c r="C19" t="n">
-        <v>31.90094635743901</v>
+        <v>53.47283188904544</v>
       </c>
       <c r="D19" t="n">
-        <v>31.90094635743901</v>
+        <v>53.47283188904544</v>
       </c>
       <c r="E19" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="F19" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="G19" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H19" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I19" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J19" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="K19" t="n">
-        <v>154.6150636799325</v>
+        <v>154.6150636799323</v>
       </c>
       <c r="L19" t="n">
-        <v>367.1733194638068</v>
+        <v>367.1733194638064</v>
       </c>
       <c r="M19" t="n">
-        <v>601.6753204158033</v>
+        <v>601.6753204158026</v>
       </c>
       <c r="N19" t="n">
-        <v>836.0360043447583</v>
+        <v>836.0360043447574</v>
       </c>
       <c r="O19" t="n">
-        <v>1036.489732814546</v>
+        <v>1036.489732814544</v>
       </c>
       <c r="P19" t="n">
-        <v>1184.491844743244</v>
+        <v>1184.491844743243</v>
       </c>
       <c r="Q19" t="n">
-        <v>1203.525755333583</v>
+        <v>1203.525755333581</v>
       </c>
       <c r="R19" t="n">
-        <v>1203.525755333583</v>
+        <v>1081.603096568118</v>
       </c>
       <c r="S19" t="n">
-        <v>1203.525755333583</v>
+        <v>877.4787266853667</v>
       </c>
       <c r="T19" t="n">
-        <v>1191.652560368881</v>
+        <v>865.6055317206657</v>
       </c>
       <c r="U19" t="n">
-        <v>1024.784734641834</v>
+        <v>576.4637337486267</v>
       </c>
       <c r="V19" t="n">
-        <v>770.1002464359472</v>
+        <v>534.7222686603134</v>
       </c>
       <c r="W19" t="n">
-        <v>480.6830763989865</v>
+        <v>245.3050986233528</v>
       </c>
       <c r="X19" t="n">
-        <v>252.6935255009691</v>
+        <v>230.2585708429089</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.90094635743901</v>
+        <v>222.4090148169524</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1008.787788125723</v>
+        <v>810.7449064536884</v>
       </c>
       <c r="C20" t="n">
-        <v>852.7682943028849</v>
+        <v>654.7254126308502</v>
       </c>
       <c r="D20" t="n">
-        <v>707.4456188137079</v>
+        <v>509.4027371416732</v>
       </c>
       <c r="E20" t="n">
-        <v>534.6003893330372</v>
+        <v>336.5575076610032</v>
       </c>
       <c r="F20" t="n">
         <v>336.5575076610032</v>
@@ -5744,31 +5744,31 @@
         <v>132.8369268824435</v>
       </c>
       <c r="H20" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I20" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J20" t="n">
-        <v>88.42033145849213</v>
+        <v>88.42033145849217</v>
       </c>
       <c r="K20" t="n">
-        <v>223.8667568317973</v>
+        <v>223.8667568317974</v>
       </c>
       <c r="L20" t="n">
-        <v>428.8017863575361</v>
+        <v>428.8017863575363</v>
       </c>
       <c r="M20" t="n">
-        <v>688.500930901816</v>
+        <v>688.5009309018162</v>
       </c>
       <c r="N20" t="n">
-        <v>957.0160874907517</v>
+        <v>1083.275142075124</v>
       </c>
       <c r="O20" t="n">
-        <v>1197.232074416836</v>
+        <v>1323.491129001208</v>
       </c>
       <c r="P20" t="n">
-        <v>1515.168308277803</v>
+        <v>1494.008915390389</v>
       </c>
       <c r="Q20" t="n">
         <v>1595.04731787195</v>
@@ -5783,19 +5783,19 @@
         <v>1595.04731787195</v>
       </c>
       <c r="U20" t="n">
-        <v>1595.04731787195</v>
+        <v>1554.332571964069</v>
       </c>
       <c r="V20" t="n">
-        <v>1520.163649074016</v>
+        <v>1436.212707738072</v>
       </c>
       <c r="W20" t="n">
-        <v>1520.163649074016</v>
+        <v>1322.120767401981</v>
       </c>
       <c r="X20" t="n">
-        <v>1359.640913930509</v>
+        <v>1161.598032258475</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.444605072271</v>
+        <v>984.4017234002365</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>661.0603982783878</v>
+        <v>649.3404310904446</v>
       </c>
       <c r="C21" t="n">
-        <v>486.6073689972608</v>
+        <v>474.8874018093176</v>
       </c>
       <c r="D21" t="n">
-        <v>337.6729593360095</v>
+        <v>474.8874018093176</v>
       </c>
       <c r="E21" t="n">
-        <v>178.435504330554</v>
+        <v>315.6499468038621</v>
       </c>
       <c r="F21" t="n">
-        <v>31.90094635743901</v>
+        <v>169.115388830747</v>
       </c>
       <c r="G21" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H21" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I21" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J21" t="n">
-        <v>46.74565797008307</v>
+        <v>171.5757829570878</v>
       </c>
       <c r="K21" t="n">
-        <v>150.2724592718943</v>
+        <v>275.1025842588991</v>
       </c>
       <c r="L21" t="n">
-        <v>335.799560778141</v>
+        <v>460.6296857651458</v>
       </c>
       <c r="M21" t="n">
-        <v>571.6578056601517</v>
+        <v>696.4879306471566</v>
       </c>
       <c r="N21" t="n">
-        <v>828.1671613818252</v>
+        <v>952.9972863688303</v>
       </c>
       <c r="O21" t="n">
-        <v>1040.603313498157</v>
+        <v>1184.774074733416</v>
       </c>
       <c r="P21" t="n">
-        <v>1435.377524671465</v>
+        <v>1335.939749265496</v>
       </c>
       <c r="Q21" t="n">
         <v>1595.04731787195</v>
       </c>
       <c r="R21" t="n">
-        <v>1588.0265470053</v>
+        <v>1588.026547005299</v>
       </c>
       <c r="S21" t="n">
-        <v>1588.0265470053</v>
+        <v>1588.026547005299</v>
       </c>
       <c r="T21" t="n">
-        <v>1588.0265470053</v>
+        <v>1588.026547005299</v>
       </c>
       <c r="U21" t="n">
-        <v>1521.333976111313</v>
+        <v>1359.902690777483</v>
       </c>
       <c r="V21" t="n">
-        <v>1499.124890997144</v>
+        <v>1124.75058254574</v>
       </c>
       <c r="W21" t="n">
-        <v>1244.887534268943</v>
+        <v>870.5132258175383</v>
       </c>
       <c r="X21" t="n">
-        <v>1037.03603406341</v>
+        <v>662.6617256120055</v>
       </c>
       <c r="Y21" t="n">
-        <v>829.2757352984559</v>
+        <v>662.6617256120055</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.7039874377425</v>
+        <v>222.4090148169539</v>
       </c>
       <c r="C22" t="n">
-        <v>326.7039874377425</v>
+        <v>53.47283188904703</v>
       </c>
       <c r="D22" t="n">
-        <v>326.7039874377425</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="E22" t="n">
-        <v>178.7908938553494</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="F22" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="G22" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="H22" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="I22" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="J22" t="n">
-        <v>31.90094635743901</v>
+        <v>31.90094635743899</v>
       </c>
       <c r="K22" t="n">
         <v>154.6150636799325</v>
@@ -5917,10 +5917,10 @@
         <v>367.1733194638068</v>
       </c>
       <c r="M22" t="n">
-        <v>601.6753204158033</v>
+        <v>601.6753204158034</v>
       </c>
       <c r="N22" t="n">
-        <v>836.0360043447583</v>
+        <v>836.0360043447586</v>
       </c>
       <c r="O22" t="n">
         <v>1036.489732814546</v>
@@ -5932,28 +5932,28 @@
         <v>1203.525755333583</v>
       </c>
       <c r="R22" t="n">
-        <v>1203.525755333583</v>
+        <v>1081.60309656812</v>
       </c>
       <c r="S22" t="n">
-        <v>1203.525755333583</v>
+        <v>877.4787266853683</v>
       </c>
       <c r="T22" t="n">
-        <v>1182.843527459029</v>
+        <v>865.6055317206673</v>
       </c>
       <c r="U22" t="n">
-        <v>893.7017294869903</v>
+        <v>789.4067568662018</v>
       </c>
       <c r="V22" t="n">
-        <v>639.0172412811035</v>
+        <v>534.722268660315</v>
       </c>
       <c r="W22" t="n">
-        <v>349.6000712441428</v>
+        <v>458.2481217409278</v>
       </c>
       <c r="X22" t="n">
-        <v>334.553543463699</v>
+        <v>443.201593960484</v>
       </c>
       <c r="Y22" t="n">
-        <v>326.7039874377425</v>
+        <v>222.4090148169539</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1013.354656972427</v>
       </c>
       <c r="C23" t="n">
-        <v>857.3351631495887</v>
+        <v>857.3351631495892</v>
       </c>
       <c r="D23" t="n">
-        <v>712.0124876604118</v>
+        <v>712.0124876604123</v>
       </c>
       <c r="E23" t="n">
-        <v>539.1672581797412</v>
+        <v>539.1672581797416</v>
       </c>
       <c r="F23" t="n">
-        <v>341.1243765077072</v>
+        <v>341.1243765077076</v>
       </c>
       <c r="G23" t="n">
-        <v>137.4037957291473</v>
+        <v>137.4037957291474</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46781520414275</v>
+        <v>36.46781520414278</v>
       </c>
       <c r="I23" t="n">
-        <v>36.46781520414275</v>
+        <v>36.46781520414278</v>
       </c>
       <c r="J23" t="n">
-        <v>92.98720030519587</v>
+        <v>92.98720030519596</v>
       </c>
       <c r="K23" t="n">
-        <v>544.2764134564625</v>
+        <v>228.4336256785012</v>
       </c>
       <c r="L23" t="n">
-        <v>749.2114429822012</v>
+        <v>586.8585853250058</v>
       </c>
       <c r="M23" t="n">
-        <v>1008.910587526481</v>
+        <v>1038.147798476273</v>
       </c>
       <c r="N23" t="n">
-        <v>1277.425744115417</v>
+        <v>1306.662955065209</v>
       </c>
       <c r="O23" t="n">
-        <v>1572.993964223809</v>
+        <v>1546.878941991292</v>
       </c>
       <c r="P23" t="n">
-        <v>1743.511750612991</v>
+        <v>1717.396728380474</v>
       </c>
       <c r="Q23" t="n">
-        <v>1823.390760207138</v>
+        <v>1797.275737974621</v>
       </c>
       <c r="R23" t="n">
-        <v>1823.390760207138</v>
+        <v>1823.390760207139</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.390760207138</v>
+        <v>1823.390760207139</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.390760207138</v>
+        <v>1823.390760207139</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.676014299257</v>
+        <v>1782.676014299258</v>
       </c>
       <c r="V23" t="n">
-        <v>1664.55615007326</v>
+        <v>1664.556150073261</v>
       </c>
       <c r="W23" t="n">
-        <v>1524.730517920719</v>
+        <v>1524.73051792072</v>
       </c>
       <c r="X23" t="n">
-        <v>1364.207782777213</v>
+        <v>1364.207782777214</v>
       </c>
       <c r="Y23" t="n">
-        <v>1187.011473918975</v>
+        <v>1187.011473918976</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>665.6272671250915</v>
+        <v>487.1703619340166</v>
       </c>
       <c r="C24" t="n">
-        <v>491.1742378439645</v>
+        <v>431.6437814206943</v>
       </c>
       <c r="D24" t="n">
-        <v>342.2398281827133</v>
+        <v>431.6437814206943</v>
       </c>
       <c r="E24" t="n">
-        <v>183.0023731772578</v>
+        <v>272.4063264152388</v>
       </c>
       <c r="F24" t="n">
-        <v>36.46781520414275</v>
+        <v>272.4063264152388</v>
       </c>
       <c r="G24" t="n">
-        <v>36.46781520414275</v>
+        <v>135.1918839419307</v>
       </c>
       <c r="H24" t="n">
-        <v>36.46781520414275</v>
+        <v>36.46781520414278</v>
       </c>
       <c r="I24" t="n">
-        <v>36.46781520414275</v>
+        <v>36.46781520414278</v>
       </c>
       <c r="J24" t="n">
-        <v>176.1426518037916</v>
+        <v>51.31252681678687</v>
       </c>
       <c r="K24" t="n">
-        <v>279.6694531056029</v>
+        <v>154.8393281185982</v>
       </c>
       <c r="L24" t="n">
-        <v>465.1965546118495</v>
+        <v>606.1285412698651</v>
       </c>
       <c r="M24" t="n">
-        <v>701.0547994938602</v>
+        <v>1057.417754421132</v>
       </c>
       <c r="N24" t="n">
-        <v>957.5641552155337</v>
+        <v>1313.927110142806</v>
       </c>
       <c r="O24" t="n">
-        <v>1170.000307331866</v>
+        <v>1526.363262259138</v>
       </c>
       <c r="P24" t="n">
-        <v>1621.289520483132</v>
+        <v>1772.259706459176</v>
       </c>
       <c r="Q24" t="n">
-        <v>1823.390760207138</v>
+        <v>1823.390760207139</v>
       </c>
       <c r="R24" t="n">
-        <v>1823.390760207138</v>
+        <v>1816.369989340488</v>
       </c>
       <c r="S24" t="n">
-        <v>1754.024701185833</v>
+        <v>1816.369989340488</v>
       </c>
       <c r="T24" t="n">
-        <v>1754.024701185833</v>
+        <v>1620.295482092264</v>
       </c>
       <c r="U24" t="n">
-        <v>1738.843868075591</v>
+        <v>1392.171625864448</v>
       </c>
       <c r="V24" t="n">
-        <v>1503.691759843848</v>
+        <v>1157.019517632705</v>
       </c>
       <c r="W24" t="n">
-        <v>1249.454403115646</v>
+        <v>902.7821609045034</v>
       </c>
       <c r="X24" t="n">
-        <v>1041.602902910113</v>
+        <v>694.9306606989705</v>
       </c>
       <c r="Y24" t="n">
-        <v>833.8426041451596</v>
+        <v>487.1703619340166</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>499.6874297005742</v>
+        <v>348.8985424291205</v>
       </c>
       <c r="C25" t="n">
-        <v>499.6874297005742</v>
+        <v>179.9623595012136</v>
       </c>
       <c r="D25" t="n">
-        <v>499.6874297005742</v>
+        <v>179.9623595012136</v>
       </c>
       <c r="E25" t="n">
-        <v>351.7743361181811</v>
+        <v>179.9623595012136</v>
       </c>
       <c r="F25" t="n">
-        <v>204.8843886202707</v>
+        <v>179.9623595012136</v>
       </c>
       <c r="G25" t="n">
-        <v>36.46781520414275</v>
+        <v>155.2575042414491</v>
       </c>
       <c r="H25" t="n">
-        <v>36.46781520414275</v>
+        <v>155.2575042414491</v>
       </c>
       <c r="I25" t="n">
-        <v>36.46781520414275</v>
+        <v>36.46781520414278</v>
       </c>
       <c r="J25" t="n">
-        <v>36.46781520414275</v>
+        <v>36.46781520414278</v>
       </c>
       <c r="K25" t="n">
-        <v>159.1819325266362</v>
+        <v>159.1819325266363</v>
       </c>
       <c r="L25" t="n">
         <v>371.7401883105106</v>
       </c>
       <c r="M25" t="n">
-        <v>606.2421892625071</v>
+        <v>606.2421892625072</v>
       </c>
       <c r="N25" t="n">
-        <v>840.6028731914621</v>
+        <v>840.6028731914623</v>
       </c>
       <c r="O25" t="n">
         <v>1041.056601661249</v>
@@ -6166,31 +6166,31 @@
         <v>1189.058713589948</v>
       </c>
       <c r="Q25" t="n">
-        <v>1208.092624180286</v>
+        <v>1208.092624180287</v>
       </c>
       <c r="R25" t="n">
-        <v>1208.092624180286</v>
+        <v>1208.092624180287</v>
       </c>
       <c r="S25" t="n">
-        <v>1208.092624180286</v>
+        <v>1003.968254297535</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.219429215585</v>
+        <v>779.1520362152603</v>
       </c>
       <c r="U25" t="n">
-        <v>1120.02065436112</v>
+        <v>702.9532613607948</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.943706661509</v>
+        <v>661.2117962724815</v>
       </c>
       <c r="W25" t="n">
-        <v>735.526536624548</v>
+        <v>371.7946262355209</v>
       </c>
       <c r="X25" t="n">
-        <v>507.5369857265307</v>
+        <v>356.7480984550771</v>
       </c>
       <c r="Y25" t="n">
-        <v>499.6874297005742</v>
+        <v>348.8985424291205</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1873.416587730707</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.185956942698</v>
+        <v>1584.185956942697</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.65214448835</v>
+        <v>1305.652144488349</v>
       </c>
       <c r="E26" t="n">
-        <v>999.5957780425085</v>
+        <v>999.5957780425075</v>
       </c>
       <c r="F26" t="n">
-        <v>668.3417594053035</v>
+        <v>668.3417594053024</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4100416615727</v>
+        <v>331.4100416615715</v>
       </c>
       <c r="H26" t="n">
-        <v>97.26292417139662</v>
+        <v>97.26292417139656</v>
       </c>
       <c r="I26" t="n">
-        <v>73.65495695836226</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J26" t="n">
         <v>130.1743420594154</v>
       </c>
       <c r="K26" t="n">
-        <v>586.5247258781736</v>
+        <v>586.5247258781737</v>
       </c>
       <c r="L26" t="n">
-        <v>1204.944357808858</v>
+        <v>1204.944357808859</v>
       </c>
       <c r="M26" t="n">
         <v>1909.661900511042</v>
       </c>
       <c r="N26" t="n">
-        <v>2611.150512267842</v>
+        <v>2260.25530148299</v>
       </c>
       <c r="O26" t="n">
-        <v>3228.358678644044</v>
+        <v>2877.463467859192</v>
       </c>
       <c r="P26" t="n">
-        <v>3602.868838323966</v>
+        <v>3366.561975338142</v>
       </c>
       <c r="Q26" t="n">
-        <v>3682.747847918113</v>
+        <v>3656.632825685594</v>
       </c>
       <c r="R26" t="n">
-        <v>3682.747847918113</v>
+        <v>3682.747847918112</v>
       </c>
       <c r="S26" t="n">
-        <v>3615.930649721616</v>
+        <v>3615.930649721615</v>
       </c>
       <c r="T26" t="n">
-        <v>3482.719512756445</v>
+        <v>3482.719512756444</v>
       </c>
       <c r="U26" t="n">
-        <v>3308.793629883393</v>
+        <v>3308.793629883392</v>
       </c>
       <c r="V26" t="n">
-        <v>3057.462628692225</v>
+        <v>3057.462628692224</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.425859574513</v>
+        <v>2784.425859574512</v>
       </c>
       <c r="X26" t="n">
-        <v>2490.691987465836</v>
+        <v>2490.691987465835</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.284541642427</v>
+        <v>2180.284541642426</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>347.6842985798463</v>
       </c>
       <c r="G27" t="n">
-        <v>210.4698561065383</v>
+        <v>210.4698561065382</v>
       </c>
       <c r="H27" t="n">
         <v>111.7457873687503</v>
       </c>
       <c r="I27" t="n">
-        <v>73.65495695836226</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J27" t="n">
-        <v>213.3297935580111</v>
+        <v>88.49966857100632</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6771795022752</v>
+        <v>192.0264698728176</v>
       </c>
       <c r="L27" t="n">
-        <v>1131.336222858946</v>
+        <v>377.5535713790644</v>
       </c>
       <c r="M27" t="n">
-        <v>1432.033790307259</v>
+        <v>1074.459829373575</v>
       </c>
       <c r="N27" t="n">
-        <v>1688.543146028932</v>
+        <v>1805.518135695366</v>
       </c>
       <c r="O27" t="n">
-        <v>1900.979298145264</v>
+        <v>2017.954287811698</v>
       </c>
       <c r="P27" t="n">
-        <v>2367.423113630882</v>
+        <v>2484.398103297316</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.530682237335</v>
@@ -6361,37 +6361,37 @@
         <v>569.156835469925</v>
       </c>
       <c r="C28" t="n">
-        <v>479.9525386944206</v>
+        <v>479.9525386944205</v>
       </c>
       <c r="D28" t="n">
-        <v>409.5677854344873</v>
+        <v>409.5677854344872</v>
       </c>
       <c r="E28" t="n">
-        <v>341.3865780044966</v>
+        <v>341.3865780044965</v>
       </c>
       <c r="F28" t="n">
-        <v>274.2285166589887</v>
+        <v>274.2285166589886</v>
       </c>
       <c r="G28" t="n">
-        <v>185.5438293952632</v>
+        <v>185.5438293952631</v>
       </c>
       <c r="H28" t="n">
         <v>112.7127598432661</v>
       </c>
       <c r="I28" t="n">
-        <v>73.65495695836226</v>
+        <v>73.65495695836223</v>
       </c>
       <c r="J28" t="n">
-        <v>147.4657976135351</v>
+        <v>147.465797613535</v>
       </c>
       <c r="K28" t="n">
-        <v>348.3251365539982</v>
+        <v>348.3251365539979</v>
       </c>
       <c r="L28" t="n">
-        <v>639.028613955842</v>
+        <v>639.0286139558419</v>
       </c>
       <c r="M28" t="n">
-        <v>951.6758365258082</v>
+        <v>951.6758365258081</v>
       </c>
       <c r="N28" t="n">
         <v>1264.181742072733</v>
@@ -6403,10 +6403,10 @@
         <v>1768.928025707158</v>
       </c>
       <c r="Q28" t="n">
-        <v>1866.107157915465</v>
+        <v>1866.107157915466</v>
       </c>
       <c r="R28" t="n">
-        <v>1823.916385302405</v>
+        <v>1823.916385302406</v>
       </c>
       <c r="S28" t="n">
         <v>1699.523901572056</v>
@@ -6424,7 +6424,7 @@
         <v>960.3917718845048</v>
       </c>
       <c r="X28" t="n">
-        <v>812.1341071388899</v>
+        <v>812.13410713889</v>
       </c>
       <c r="Y28" t="n">
         <v>671.0734141477623</v>
@@ -6446,13 +6446,13 @@
         <v>1305.652144488349</v>
       </c>
       <c r="E29" t="n">
-        <v>999.5957780425076</v>
+        <v>999.5957780425075</v>
       </c>
       <c r="F29" t="n">
-        <v>668.3417594053026</v>
+        <v>668.3417594053024</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4100416615718</v>
+        <v>331.4100416615715</v>
       </c>
       <c r="H29" t="n">
         <v>97.26292417139659</v>
@@ -6461,37 +6461,37 @@
         <v>73.65495695836226</v>
       </c>
       <c r="J29" t="n">
-        <v>130.1743420594154</v>
+        <v>297.5799910797685</v>
       </c>
       <c r="K29" t="n">
-        <v>586.5247258781737</v>
+        <v>445.8213558466276</v>
       </c>
       <c r="L29" t="n">
-        <v>1204.944357808859</v>
+        <v>1064.240987777313</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.661900511042</v>
+        <v>1768.958530479496</v>
       </c>
       <c r="N29" t="n">
-        <v>2611.150512267843</v>
+        <v>2470.447142236297</v>
       </c>
       <c r="O29" t="n">
-        <v>3228.358678644044</v>
+        <v>3087.655308612498</v>
       </c>
       <c r="P29" t="n">
-        <v>3602.868838323966</v>
+        <v>3576.753816091448</v>
       </c>
       <c r="Q29" t="n">
-        <v>3682.747847918113</v>
+        <v>3656.632825685595</v>
       </c>
       <c r="R29" t="n">
         <v>3682.747847918113</v>
       </c>
       <c r="S29" t="n">
-        <v>3615.930649721615</v>
+        <v>3615.930649721616</v>
       </c>
       <c r="T29" t="n">
-        <v>3482.719512756444</v>
+        <v>3482.719512756445</v>
       </c>
       <c r="U29" t="n">
         <v>3308.793629883392</v>
@@ -6540,19 +6540,19 @@
         <v>73.65495695836226</v>
       </c>
       <c r="J30" t="n">
-        <v>213.3297935580111</v>
+        <v>88.49966857100635</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6771795022752</v>
+        <v>192.0264698728177</v>
       </c>
       <c r="L30" t="n">
-        <v>806.2518493412861</v>
+        <v>744.6855132294888</v>
       </c>
       <c r="M30" t="n">
-        <v>1042.110094223297</v>
+        <v>980.5437581114996</v>
       </c>
       <c r="N30" t="n">
-        <v>1298.61944994497</v>
+        <v>1688.543146028932</v>
       </c>
       <c r="O30" t="n">
         <v>1900.979298145264</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.156835469925</v>
+        <v>569.1568354699252</v>
       </c>
       <c r="C31" t="n">
-        <v>479.9525386944206</v>
+        <v>479.9525386944207</v>
       </c>
       <c r="D31" t="n">
-        <v>409.5677854344873</v>
+        <v>409.5677854344874</v>
       </c>
       <c r="E31" t="n">
-        <v>341.3865780044966</v>
+        <v>341.3865780044967</v>
       </c>
       <c r="F31" t="n">
-        <v>274.2285166589887</v>
+        <v>274.2285166589888</v>
       </c>
       <c r="G31" t="n">
         <v>185.5438293952632</v>
@@ -6619,16 +6619,16 @@
         <v>73.65495695836226</v>
       </c>
       <c r="J31" t="n">
-        <v>147.4657976135351</v>
+        <v>147.4657976135345</v>
       </c>
       <c r="K31" t="n">
-        <v>348.3251365539982</v>
+        <v>348.3251365539976</v>
       </c>
       <c r="L31" t="n">
-        <v>639.0286139558422</v>
+        <v>639.0286139558416</v>
       </c>
       <c r="M31" t="n">
-        <v>951.6758365258079</v>
+        <v>951.6758365258078</v>
       </c>
       <c r="N31" t="n">
         <v>1264.181742072733</v>
@@ -6640,10 +6640,10 @@
         <v>1768.928025707158</v>
       </c>
       <c r="Q31" t="n">
-        <v>1866.107157915465</v>
+        <v>1866.107157915466</v>
       </c>
       <c r="R31" t="n">
-        <v>1823.916385302405</v>
+        <v>1823.916385302406</v>
       </c>
       <c r="S31" t="n">
         <v>1699.523901572056</v>
@@ -6658,13 +6658,13 @@
         <v>1170.077055769063</v>
       </c>
       <c r="W31" t="n">
-        <v>960.3917718845049</v>
+        <v>960.391771884505</v>
       </c>
       <c r="X31" t="n">
-        <v>812.1341071388899</v>
+        <v>812.1341071388902</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.0734141477623</v>
+        <v>671.0734141477625</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1873.416587730707</v>
+        <v>1873.416587730708</v>
       </c>
       <c r="C32" t="n">
         <v>1584.185956942698</v>
@@ -6683,37 +6683,37 @@
         <v>1305.65214448835</v>
       </c>
       <c r="E32" t="n">
-        <v>999.5957780425077</v>
+        <v>999.5957780425084</v>
       </c>
       <c r="F32" t="n">
-        <v>668.3417594053026</v>
+        <v>668.3417594053033</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4100416615718</v>
+        <v>331.4100416615723</v>
       </c>
       <c r="H32" t="n">
-        <v>97.26292417139661</v>
+        <v>97.26292417139663</v>
       </c>
       <c r="I32" t="n">
         <v>73.65495695836226</v>
       </c>
       <c r="J32" t="n">
-        <v>297.5799910797684</v>
+        <v>297.5799910797685</v>
       </c>
       <c r="K32" t="n">
-        <v>433.0264164530736</v>
+        <v>649.1141174982678</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.446048383758</v>
+        <v>854.0491470240066</v>
       </c>
       <c r="M32" t="n">
-        <v>1756.163591085942</v>
+        <v>1558.766689726191</v>
       </c>
       <c r="N32" t="n">
-        <v>2457.652202842743</v>
+        <v>2260.255301482991</v>
       </c>
       <c r="O32" t="n">
-        <v>3074.860369218944</v>
+        <v>2877.463467859193</v>
       </c>
       <c r="P32" t="n">
         <v>3366.561975338142</v>
@@ -6734,13 +6734,13 @@
         <v>3308.793629883393</v>
       </c>
       <c r="V32" t="n">
-        <v>3057.462628692225</v>
+        <v>3057.462628692226</v>
       </c>
       <c r="W32" t="n">
-        <v>2784.425859574513</v>
+        <v>2784.425859574514</v>
       </c>
       <c r="X32" t="n">
-        <v>2490.691987465836</v>
+        <v>2490.691987465837</v>
       </c>
       <c r="Y32" t="n">
         <v>2180.284541642427</v>
@@ -6780,22 +6780,22 @@
         <v>213.3297935580111</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6771795022752</v>
+        <v>316.8565948598224</v>
       </c>
       <c r="L33" t="n">
-        <v>1131.336222858946</v>
+        <v>854.9575545531962</v>
       </c>
       <c r="M33" t="n">
-        <v>1367.194467740957</v>
+        <v>1090.815799435207</v>
       </c>
       <c r="N33" t="n">
-        <v>1623.70382346263</v>
+        <v>1821.874105756999</v>
       </c>
       <c r="O33" t="n">
-        <v>1900.979298145264</v>
+        <v>2424.233953957293</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.423113630882</v>
+        <v>2575.399628489372</v>
       </c>
       <c r="Q33" t="n">
         <v>2626.530682237335</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>569.156835469925</v>
+        <v>569.1568354699248</v>
       </c>
       <c r="C34" t="n">
-        <v>479.9525386944206</v>
+        <v>479.9525386944202</v>
       </c>
       <c r="D34" t="n">
-        <v>409.5677854344873</v>
+        <v>409.5677854344869</v>
       </c>
       <c r="E34" t="n">
-        <v>341.3865780044966</v>
+        <v>341.3865780044962</v>
       </c>
       <c r="F34" t="n">
-        <v>274.2285166589887</v>
+        <v>274.2285166589883</v>
       </c>
       <c r="G34" t="n">
-        <v>185.5438293952632</v>
+        <v>185.5438293952627</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7127598432661</v>
+        <v>112.7127598432658</v>
       </c>
       <c r="I34" t="n">
         <v>73.65495695836226</v>
       </c>
       <c r="J34" t="n">
-        <v>147.465797613535</v>
+        <v>147.4657976135348</v>
       </c>
       <c r="K34" t="n">
-        <v>348.3251365539981</v>
+        <v>348.3251365539978</v>
       </c>
       <c r="L34" t="n">
-        <v>639.028613955842</v>
+        <v>639.0286139558417</v>
       </c>
       <c r="M34" t="n">
-        <v>951.6758365258086</v>
+        <v>951.6758365258081</v>
       </c>
       <c r="N34" t="n">
         <v>1264.181742072733</v>
       </c>
       <c r="O34" t="n">
-        <v>1542.78069216049</v>
+        <v>1542.780692160489</v>
       </c>
       <c r="P34" t="n">
         <v>1768.928025707158</v>
@@ -6883,10 +6883,10 @@
         <v>1823.916385302406</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.523901572057</v>
+        <v>1699.523901572056</v>
       </c>
       <c r="T34" t="n">
-        <v>1554.439569642185</v>
+        <v>1554.439569642184</v>
       </c>
       <c r="U34" t="n">
         <v>1345.029657822548</v>
@@ -6895,13 +6895,13 @@
         <v>1170.077055769063</v>
       </c>
       <c r="W34" t="n">
-        <v>960.3917718845053</v>
+        <v>960.391771884505</v>
       </c>
       <c r="X34" t="n">
-        <v>812.1341071388899</v>
+        <v>812.1341071388897</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.0734141477623</v>
+        <v>671.073414147762</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>52.09950459753007</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0245387189362</v>
+        <v>276.0245387189363</v>
       </c>
       <c r="K35" t="n">
-        <v>411.4709640922414</v>
+        <v>411.4709640922416</v>
       </c>
       <c r="L35" t="n">
-        <v>616.4059936179802</v>
+        <v>1029.890596022927</v>
       </c>
       <c r="M35" t="n">
-        <v>1261.137363012415</v>
+        <v>1468.855110928037</v>
       </c>
       <c r="N35" t="n">
-        <v>1529.652519601351</v>
+        <v>1737.370267516973</v>
       </c>
       <c r="O35" t="n">
-        <v>1799.690849817584</v>
+        <v>2354.578433893174</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.789357296533</v>
+        <v>2525.096220282356</v>
       </c>
       <c r="Q35" t="n">
-        <v>2578.860207643986</v>
+        <v>2604.975229876503</v>
       </c>
       <c r="R35" t="n">
         <v>2604.975229876503</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.288298139963</v>
+        <v>955.2882981399625</v>
       </c>
       <c r="C36" t="n">
-        <v>780.835268858836</v>
+        <v>780.8352688588355</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9008591975846</v>
+        <v>631.9008591975842</v>
       </c>
       <c r="E36" t="n">
-        <v>472.6634041921291</v>
+        <v>472.6634041921286</v>
       </c>
       <c r="F36" t="n">
-        <v>326.128846219014</v>
+        <v>326.1288462190136</v>
       </c>
       <c r="G36" t="n">
-        <v>188.9144037457061</v>
+        <v>188.9144037457058</v>
       </c>
       <c r="H36" t="n">
         <v>90.19033500791812</v>
@@ -7023,16 +7023,16 @@
         <v>1109.780770498114</v>
       </c>
       <c r="M36" t="n">
-        <v>1410.478337946427</v>
+        <v>1545.510980085694</v>
       </c>
       <c r="N36" t="n">
-        <v>1666.9876936681</v>
+        <v>2190.242349480129</v>
       </c>
       <c r="O36" t="n">
-        <v>1879.423845784432</v>
+        <v>2402.678501596461</v>
       </c>
       <c r="P36" t="n">
-        <v>2345.86766127005</v>
+        <v>2553.84417612854</v>
       </c>
       <c r="Q36" t="n">
         <v>2604.975229876503</v>
@@ -7053,10 +7053,10 @@
         <v>1793.352790858719</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.115434130518</v>
+        <v>1539.115434130517</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.263933924985</v>
+        <v>1331.263933924984</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.503635160031</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>387.9916381650047</v>
+        <v>235.4286824606051</v>
       </c>
       <c r="C37" t="n">
-        <v>373.0790337180576</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="D37" t="n">
-        <v>373.0790337180576</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="E37" t="n">
-        <v>373.0790337180576</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="F37" t="n">
-        <v>373.0790337180576</v>
+        <v>66.49249953269819</v>
       </c>
       <c r="G37" t="n">
-        <v>204.6624603019296</v>
+        <v>52.09950459753007</v>
       </c>
       <c r="H37" t="n">
         <v>52.09950459753007</v>
@@ -7123,22 +7123,22 @@
         <v>1173.623522171882</v>
       </c>
       <c r="T37" t="n">
-        <v>948.8073040896073</v>
+        <v>1102.830882570567</v>
       </c>
       <c r="U37" t="n">
-        <v>792.4059988748401</v>
+        <v>947.8902001323602</v>
       </c>
       <c r="V37" t="n">
-        <v>691.745089149913</v>
+        <v>847.2292904074332</v>
       </c>
       <c r="W37" t="n">
-        <v>556.3514975939123</v>
+        <v>557.8121203704726</v>
       </c>
       <c r="X37" t="n">
-        <v>482.3855251768548</v>
+        <v>483.8461479534151</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.6165245142845</v>
+        <v>263.053568809885</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1382.503014185497</v>
+        <v>1382.503014185496</v>
       </c>
       <c r="C38" t="n">
-        <v>1167.564075726045</v>
+        <v>1167.564075726044</v>
       </c>
       <c r="D38" t="n">
-        <v>963.3219556002545</v>
+        <v>963.3219556002535</v>
       </c>
       <c r="E38" t="n">
-        <v>731.5572814829701</v>
+        <v>731.5572814829692</v>
       </c>
       <c r="F38" t="n">
-        <v>474.5949551743224</v>
+        <v>474.5949551743215</v>
       </c>
       <c r="G38" t="n">
         <v>211.9549297591483</v>
       </c>
       <c r="H38" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I38" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0245387189362</v>
+        <v>108.6188896985832</v>
       </c>
       <c r="K38" t="n">
-        <v>732.3749225376946</v>
+        <v>244.0653150718885</v>
       </c>
       <c r="L38" t="n">
-        <v>937.3099520634333</v>
+        <v>449.0003445976274</v>
       </c>
       <c r="M38" t="n">
-        <v>1197.009096607713</v>
+        <v>1066.52387589002</v>
       </c>
       <c r="N38" t="n">
-        <v>1465.524253196649</v>
+        <v>1711.255245284454</v>
       </c>
       <c r="O38" t="n">
-        <v>1825.805872050101</v>
+        <v>2328.463411660656</v>
       </c>
       <c r="P38" t="n">
-        <v>2314.904379529051</v>
+        <v>2498.981198049838</v>
       </c>
       <c r="Q38" t="n">
-        <v>2604.975229876503</v>
+        <v>2578.860207643985</v>
       </c>
       <c r="R38" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="S38" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="T38" t="n">
-        <v>2546.05578523989</v>
+        <v>2546.055785239889</v>
       </c>
       <c r="U38" t="n">
-        <v>2446.421594695396</v>
+        <v>2446.421594695395</v>
       </c>
       <c r="V38" t="n">
-        <v>2269.382285832785</v>
+        <v>2269.382285832784</v>
       </c>
       <c r="W38" t="n">
-        <v>2070.637209043631</v>
+        <v>2070.63720904363</v>
       </c>
       <c r="X38" t="n">
-        <v>1851.195029263511</v>
+        <v>1851.19502926351</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.079275768659</v>
+        <v>1615.079275768658</v>
       </c>
     </row>
     <row r="39">
@@ -7242,31 +7242,31 @@
         <v>326.1288462190141</v>
       </c>
       <c r="G39" t="n">
-        <v>188.9144037457061</v>
+        <v>188.914403745706</v>
       </c>
       <c r="H39" t="n">
-        <v>90.19033500791812</v>
+        <v>90.19033500791809</v>
       </c>
       <c r="I39" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J39" t="n">
-        <v>66.94421621017413</v>
+        <v>191.7743411971789</v>
       </c>
       <c r="K39" t="n">
-        <v>170.4710175119854</v>
+        <v>557.121727141443</v>
       </c>
       <c r="L39" t="n">
-        <v>510.855914607298</v>
+        <v>1109.780770498114</v>
       </c>
       <c r="M39" t="n">
-        <v>1155.587284001733</v>
+        <v>1345.639015380125</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.318653396167</v>
+        <v>1990.370384774559</v>
       </c>
       <c r="O39" t="n">
-        <v>2402.678501596461</v>
+        <v>2202.806536890891</v>
       </c>
       <c r="P39" t="n">
         <v>2553.844176128541</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.4286824606051</v>
+        <v>101.2275669267731</v>
       </c>
       <c r="C40" t="n">
-        <v>66.49249953269819</v>
+        <v>86.31496247982605</v>
       </c>
       <c r="D40" t="n">
-        <v>66.49249953269819</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="E40" t="n">
-        <v>66.49249953269819</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="F40" t="n">
-        <v>66.49249953269819</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="G40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="H40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J40" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="K40" t="n">
         <v>174.8136219200235</v>
@@ -7363,19 +7363,19 @@
         <v>1102.830882570567</v>
       </c>
       <c r="U40" t="n">
-        <v>967.712663079488</v>
+        <v>813.6890845985281</v>
       </c>
       <c r="V40" t="n">
-        <v>847.2292904074332</v>
+        <v>559.0045963926412</v>
       </c>
       <c r="W40" t="n">
-        <v>557.8121203704726</v>
+        <v>269.5874263556806</v>
       </c>
       <c r="X40" t="n">
-        <v>483.8461479534151</v>
+        <v>195.6214539386232</v>
       </c>
       <c r="Y40" t="n">
-        <v>263.053568809885</v>
+        <v>128.8524532760529</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1382.503014185496</v>
       </c>
       <c r="C41" t="n">
-        <v>1167.564075726045</v>
+        <v>1167.564075726044</v>
       </c>
       <c r="D41" t="n">
-        <v>963.3219556002539</v>
+        <v>963.3219556002537</v>
       </c>
       <c r="E41" t="n">
-        <v>731.5572814829694</v>
+        <v>731.5572814829693</v>
       </c>
       <c r="F41" t="n">
-        <v>474.594955174322</v>
+        <v>474.5949551743216</v>
       </c>
       <c r="G41" t="n">
         <v>211.9549297591483</v>
       </c>
       <c r="H41" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I41" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J41" t="n">
         <v>108.6188896985832</v>
       </c>
       <c r="K41" t="n">
-        <v>564.9692735173414</v>
+        <v>564.9692735173415</v>
       </c>
       <c r="L41" t="n">
-        <v>769.9043030430802</v>
+        <v>769.9043030430804</v>
       </c>
       <c r="M41" t="n">
-        <v>1029.60344758736</v>
+        <v>1290.959706302563</v>
       </c>
       <c r="N41" t="n">
-        <v>1298.118604176296</v>
+        <v>1559.474862891499</v>
       </c>
       <c r="O41" t="n">
-        <v>1915.326770552497</v>
+        <v>1799.690849817583</v>
       </c>
       <c r="P41" t="n">
-        <v>2404.425278031447</v>
+        <v>2288.789357296532</v>
       </c>
       <c r="Q41" t="n">
-        <v>2578.860207643986</v>
+        <v>2578.860207643985</v>
       </c>
       <c r="R41" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="S41" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="T41" t="n">
         <v>2546.055785239889</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>955.2882981399628</v>
+        <v>955.2882981399629</v>
       </c>
       <c r="C42" t="n">
-        <v>780.8352688588358</v>
+        <v>780.8352688588359</v>
       </c>
       <c r="D42" t="n">
-        <v>631.9008591975845</v>
+        <v>631.9008591975846</v>
       </c>
       <c r="E42" t="n">
-        <v>472.663404192129</v>
+        <v>472.6634041921292</v>
       </c>
       <c r="F42" t="n">
-        <v>326.128846219014</v>
+        <v>326.1288462190141</v>
       </c>
       <c r="G42" t="n">
         <v>188.914403745706</v>
       </c>
       <c r="H42" t="n">
-        <v>90.19033500791812</v>
+        <v>90.19033500791809</v>
       </c>
       <c r="I42" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J42" t="n">
         <v>191.7743411971789</v>
@@ -7494,22 +7494,22 @@
         <v>557.121727141443</v>
       </c>
       <c r="L42" t="n">
-        <v>742.6488286476896</v>
+        <v>742.6488286476897</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5070735297003</v>
+        <v>1387.380198042124</v>
       </c>
       <c r="N42" t="n">
-        <v>1277.063997584138</v>
+        <v>1666.987693668101</v>
       </c>
       <c r="O42" t="n">
-        <v>1879.423845784432</v>
+        <v>1879.423845784433</v>
       </c>
       <c r="P42" t="n">
         <v>2345.86766127005</v>
       </c>
       <c r="Q42" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876504</v>
       </c>
       <c r="R42" t="n">
         <v>2597.954459009853</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>231.521743391981</v>
+        <v>81.4051039796452</v>
       </c>
       <c r="C43" t="n">
-        <v>216.6091389450339</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="D43" t="n">
-        <v>66.49249953269819</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="E43" t="n">
-        <v>66.49249953269819</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="F43" t="n">
-        <v>66.49249953269819</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="G43" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="H43" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I43" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J43" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="K43" t="n">
         <v>174.8136219200235</v>
@@ -7594,25 +7594,25 @@
         <v>1223.724313573674</v>
       </c>
       <c r="S43" t="n">
-        <v>1019.599943690922</v>
+        <v>1173.623522171882</v>
       </c>
       <c r="T43" t="n">
-        <v>794.7837256086475</v>
+        <v>948.8073040896073</v>
       </c>
       <c r="U43" t="n">
-        <v>635.9361041018163</v>
+        <v>659.6655061175684</v>
       </c>
       <c r="V43" t="n">
-        <v>535.2751943768893</v>
+        <v>404.9810179116815</v>
       </c>
       <c r="W43" t="n">
-        <v>399.8816028208885</v>
+        <v>249.7649634085527</v>
       </c>
       <c r="X43" t="n">
-        <v>325.9156304038311</v>
+        <v>175.7989909914953</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.1466297412608</v>
+        <v>109.029990328925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1382.503014185497</v>
+        <v>1382.503014185496</v>
       </c>
       <c r="C44" t="n">
-        <v>1167.564075726045</v>
+        <v>1167.564075726044</v>
       </c>
       <c r="D44" t="n">
         <v>963.3219556002538</v>
@@ -7640,58 +7640,58 @@
         <v>211.9549297591483</v>
       </c>
       <c r="H44" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I44" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0245387189362</v>
+        <v>108.6188896985832</v>
       </c>
       <c r="K44" t="n">
-        <v>732.3749225376946</v>
+        <v>564.9692735173415</v>
       </c>
       <c r="L44" t="n">
-        <v>990.9240802304153</v>
+        <v>1183.388905448026</v>
       </c>
       <c r="M44" t="n">
-        <v>1635.65544962485</v>
+        <v>1609.540427392331</v>
       </c>
       <c r="N44" t="n">
-        <v>1904.170606213786</v>
+        <v>1878.055583981267</v>
       </c>
       <c r="O44" t="n">
-        <v>2144.386593139869</v>
+        <v>2118.27157090735</v>
       </c>
       <c r="P44" t="n">
-        <v>2314.904379529051</v>
+        <v>2288.789357296532</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.975229876503</v>
+        <v>2578.860207643985</v>
       </c>
       <c r="R44" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="S44" t="n">
-        <v>2604.975229876503</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="T44" t="n">
-        <v>2546.05578523989</v>
+        <v>2546.055785239889</v>
       </c>
       <c r="U44" t="n">
         <v>2446.421594695395</v>
       </c>
       <c r="V44" t="n">
-        <v>2269.382285832785</v>
+        <v>2269.382285832784</v>
       </c>
       <c r="W44" t="n">
-        <v>2070.637209043631</v>
+        <v>2070.63720904363</v>
       </c>
       <c r="X44" t="n">
-        <v>1851.195029263511</v>
+        <v>1851.19502926351</v>
       </c>
       <c r="Y44" t="n">
-        <v>1615.079275768659</v>
+        <v>1615.079275768658</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.2882981399629</v>
+        <v>955.2882981399619</v>
       </c>
       <c r="C45" t="n">
-        <v>780.8352688588359</v>
+        <v>780.8352688588349</v>
       </c>
       <c r="D45" t="n">
-        <v>631.9008591975846</v>
+        <v>631.9008591975836</v>
       </c>
       <c r="E45" t="n">
-        <v>472.6634041921292</v>
+        <v>472.6634041921281</v>
       </c>
       <c r="F45" t="n">
-        <v>326.1288462190141</v>
+        <v>326.1288462190131</v>
       </c>
       <c r="G45" t="n">
-        <v>188.9144037457061</v>
+        <v>188.914403745705</v>
       </c>
       <c r="H45" t="n">
-        <v>90.19033500791812</v>
+        <v>90.19033500791809</v>
       </c>
       <c r="I45" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J45" t="n">
         <v>191.7743411971789</v>
       </c>
       <c r="K45" t="n">
-        <v>557.121727141443</v>
+        <v>295.3011424989902</v>
       </c>
       <c r="L45" t="n">
-        <v>1109.780770498114</v>
+        <v>847.9601858556614</v>
       </c>
       <c r="M45" t="n">
-        <v>1410.478337946427</v>
+        <v>1230.232839132156</v>
       </c>
       <c r="N45" t="n">
-        <v>1666.987693668101</v>
+        <v>1874.96420852659</v>
       </c>
       <c r="O45" t="n">
-        <v>1879.423845784433</v>
+        <v>2087.400360642922</v>
       </c>
       <c r="P45" t="n">
-        <v>2345.86766127005</v>
+        <v>2553.844176128539</v>
       </c>
       <c r="Q45" t="n">
-        <v>2604.975229876504</v>
+        <v>2604.975229876502</v>
       </c>
       <c r="R45" t="n">
-        <v>2597.954459009853</v>
+        <v>2597.954459009852</v>
       </c>
       <c r="S45" t="n">
         <v>2452.703262566502</v>
       </c>
       <c r="T45" t="n">
-        <v>2256.628755318278</v>
+        <v>2256.628755318277</v>
       </c>
       <c r="U45" t="n">
-        <v>2028.504899090462</v>
+        <v>2028.504899090461</v>
       </c>
       <c r="V45" t="n">
-        <v>1793.352790858719</v>
+        <v>1793.352790858718</v>
       </c>
       <c r="W45" t="n">
-        <v>1539.115434130518</v>
+        <v>1539.115434130517</v>
       </c>
       <c r="X45" t="n">
-        <v>1331.263933924985</v>
+        <v>1331.263933924984</v>
       </c>
       <c r="Y45" t="n">
-        <v>1123.503635160031</v>
+        <v>1123.50363516003</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.2983023696528</v>
+        <v>81.4051039796452</v>
       </c>
       <c r="C46" t="n">
-        <v>548.3856979227057</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="D46" t="n">
-        <v>548.3856979227057</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="E46" t="n">
-        <v>400.4726043403126</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="F46" t="n">
-        <v>253.5826568424023</v>
+        <v>66.49249953269816</v>
       </c>
       <c r="G46" t="n">
-        <v>209.0848467551454</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="H46" t="n">
-        <v>56.52189105074589</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="I46" t="n">
-        <v>56.52189105074589</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="J46" t="n">
-        <v>52.09950459753007</v>
+        <v>52.09950459753005</v>
       </c>
       <c r="K46" t="n">
         <v>174.8136219200235</v>
@@ -7831,25 +7831,25 @@
         <v>1223.724313573674</v>
       </c>
       <c r="S46" t="n">
-        <v>1173.623522171882</v>
+        <v>1153.801059224754</v>
       </c>
       <c r="T46" t="n">
-        <v>1102.830882570567</v>
+        <v>1083.008419623439</v>
       </c>
       <c r="U46" t="n">
-        <v>967.712663079488</v>
+        <v>947.8902001323601</v>
       </c>
       <c r="V46" t="n">
-        <v>867.051753354561</v>
+        <v>693.2057119264732</v>
       </c>
       <c r="W46" t="n">
-        <v>731.6581617985603</v>
+        <v>557.8121203704725</v>
       </c>
       <c r="X46" t="n">
-        <v>657.6921893815028</v>
+        <v>329.8225694724551</v>
       </c>
       <c r="Y46" t="n">
-        <v>590.9231887189326</v>
+        <v>263.0535688098849</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>148.907522698777</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>148.9075226987739</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.33760953710578</v>
+        <v>39.33760953710598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>19.53599621035875</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>139.6614701531661</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>89.95181379304375</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>148.9075226987769</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.9075226987738</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.33760953710578</v>
+        <v>39.33760953710598</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>19.53599621035875</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>145.6270315507696</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>148.9075226987743</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>136.4394612414426</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>12.46806145733433</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.33760953710578</v>
+        <v>39.33760953710598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>109.6350903560853</v>
       </c>
       <c r="P18" t="n">
-        <v>246.0692289305332</v>
+        <v>246.0692289305333</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.6350903560833</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,19 +9410,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>127.5343985700724</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>148.9075226987739</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>21.37312412870023</v>
       </c>
       <c r="R20" t="n">
-        <v>39.33760953710578</v>
+        <v>39.33760953710575</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>19.53599621035744</v>
       </c>
       <c r="P21" t="n">
-        <v>246.0692289305332</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.6350903560833</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>319.0331189676377</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>155.0403334553189</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>193.5253218252394</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>55.91134664879658</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.33760953710578</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>268.4465774192124</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>217.6070386558143</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>303.15508951433</v>
+        <v>95.68764612925077</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4951373495379</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>82.90731755859775</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>206.0529023138795</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>39.33760953710581</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>65.49426521848682</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>91.92073251722846</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>12.92418120560995</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>206.0529023138785</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>39.33760953710578</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>42.47229124521644</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>456.0505375714738</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>218.2704050961556</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>122.4078987171887</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.1352102900275</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>65.49426521848682</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>388.9214392425805</v>
+        <v>181.0761316776067</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>30.12357908095905</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>39.33760953710575</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>65.49426521848676</v>
+        <v>201.890873439969</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.143448154304</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>361.438774493043</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>380.0163765712107</v>
       </c>
       <c r="O38" t="n">
-        <v>121.2784160882514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>39.33760953710578</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>156.4220157465313</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>413.0031560731554</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>392.1434481543041</v>
+        <v>392.1434481543038</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>201.8908734399696</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>263.9962209244472</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.51103032160785</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,13 +11145,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>413.0031560731551</v>
       </c>
       <c r="N42" t="n">
-        <v>42.47229124521658</v>
+        <v>23.33145444879102</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>54.15568501715342</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>388.9214392425805</v>
+        <v>168.1337145454794</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>39.33760953710578</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>65.49426521848721</v>
+        <v>147.8933418126097</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.1434481543038</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.5281251532207</v>
       </c>
       <c r="C11" t="n">
         <v>233.3938661754882</v>
@@ -23264,10 +23264,10 @@
         <v>222.8040160251636</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.0513444767424</v>
       </c>
       <c r="F11" t="n">
-        <v>274.9970201461921</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.20456790989117</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>78.93456729087839</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.32353690078531</v>
+        <v>119.2421657396801</v>
       </c>
       <c r="V11" t="n">
-        <v>195.8732328746155</v>
+        <v>195.8732328746156</v>
       </c>
       <c r="W11" t="n">
-        <v>217.3619431218936</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>222.8040160251636</v>
       </c>
       <c r="E14" t="n">
-        <v>250.0513444767424</v>
+        <v>123.3955859426177</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>280.6179422616526</v>
       </c>
       <c r="H14" t="n">
-        <v>178.8611880106329</v>
+        <v>178.861188010633</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.20456790989117</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>78.93456729087839</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>83.31175877403568</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>195.8732328746155</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.3619431218937</v>
       </c>
       <c r="X14" t="n">
         <v>237.8520750829497</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>196.0624528553136</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>99.92662071975454</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>25.47635489828517</v>
+        <v>121.6121870338438</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>196.0624528553137</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>40.30759844880165</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>42.80383347378154</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>138.4273758310152</v>
+        <v>25.47635489828532</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.926990152596355e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>729972.4784242876</v>
+        <v>729972.4784242878</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>729972.4784242875</v>
+        <v>729972.4784242874</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843675.7746520437</v>
+        <v>843675.7746520436</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843675.7746520437</v>
+        <v>843675.7746520436</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774084</v>
       </c>
       <c r="E2" t="n">
+        <v>630590.3685627602</v>
+      </c>
+      <c r="F2" t="n">
         <v>630590.3685627604</v>
       </c>
-      <c r="F2" t="n">
-        <v>630590.3685627605</v>
-      </c>
       <c r="G2" t="n">
-        <v>702981.3706712099</v>
+        <v>702981.3706712098</v>
       </c>
       <c r="H2" t="n">
-        <v>702981.3706712098</v>
+        <v>702981.3706712096</v>
       </c>
       <c r="I2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="J2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="K2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>785287.9654238003</v>
+        <v>785287.9654237996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15180.32913230384</v>
+        <v>15180.32913230397</v>
       </c>
       <c r="J3" t="n">
-        <v>121622.4064642626</v>
+        <v>121622.4064642624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>63147.65383270272</v>
       </c>
       <c r="M3" t="n">
-        <v>91065.75139834755</v>
+        <v>91065.75139834754</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>165346.2753949818</v>
+        <v>165346.275394982</v>
       </c>
       <c r="F4" t="n">
-        <v>165346.2753949818</v>
+        <v>165346.275394982</v>
       </c>
       <c r="G4" t="n">
-        <v>212567.304618856</v>
+        <v>212567.3046188562</v>
       </c>
       <c r="H4" t="n">
-        <v>212567.304618856</v>
+        <v>212567.3046188559</v>
       </c>
       <c r="I4" t="n">
         <v>220346.1549866097</v>
       </c>
       <c r="J4" t="n">
-        <v>205672.9437790743</v>
+        <v>205672.9437790742</v>
       </c>
       <c r="K4" t="n">
-        <v>205672.9437790743</v>
+        <v>205672.9437790742</v>
       </c>
       <c r="L4" t="n">
         <v>205672.9437790742</v>
       </c>
       <c r="M4" t="n">
-        <v>212520.3806816093</v>
+        <v>212520.3806816092</v>
       </c>
       <c r="N4" t="n">
-        <v>212520.3806816093</v>
+        <v>212520.3806816092</v>
       </c>
       <c r="O4" t="n">
-        <v>212520.3806816093</v>
+        <v>212520.3806816092</v>
       </c>
       <c r="P4" t="n">
-        <v>212520.3806816093</v>
+        <v>212520.3806816092</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>50546.64444716291</v>
+        <v>50546.64444716289</v>
       </c>
       <c r="F5" t="n">
-        <v>50546.64444716291</v>
+        <v>50546.64444716289</v>
       </c>
       <c r="G5" t="n">
-        <v>57182.59458473977</v>
+        <v>57182.59458473974</v>
       </c>
       <c r="H5" t="n">
         <v>57182.59458473977</v>
       </c>
       <c r="I5" t="n">
-        <v>60653.41490823462</v>
+        <v>60653.41490823464</v>
       </c>
       <c r="J5" t="n">
-        <v>77828.70483865173</v>
+        <v>77828.7048386517</v>
       </c>
       <c r="K5" t="n">
         <v>77828.70483865173</v>
@@ -26503,13 +26503,13 @@
         <v>67629.73304396505</v>
       </c>
       <c r="N5" t="n">
-        <v>67629.73304396505</v>
+        <v>67629.73304396504</v>
       </c>
       <c r="O5" t="n">
-        <v>67629.73304396505</v>
+        <v>67629.73304396504</v>
       </c>
       <c r="P5" t="n">
-        <v>67629.73304396505</v>
+        <v>67629.73304396504</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236214.5761050158</v>
+        <v>236210.1625271476</v>
       </c>
       <c r="C6" t="n">
-        <v>236214.5761050158</v>
+        <v>236210.1625271476</v>
       </c>
       <c r="D6" t="n">
-        <v>236214.5761050158</v>
+        <v>236210.1625271474</v>
       </c>
       <c r="E6" t="n">
-        <v>-370590.5167031846</v>
+        <v>-370841.4343605228</v>
       </c>
       <c r="F6" t="n">
-        <v>414697.4487206158</v>
+        <v>414446.531063277</v>
       </c>
       <c r="G6" t="n">
-        <v>370083.8176349113</v>
+        <v>370039.7314121681</v>
       </c>
       <c r="H6" t="n">
-        <v>433231.4714676139</v>
+        <v>433187.385244871</v>
       </c>
       <c r="I6" t="n">
-        <v>422231.6496040999</v>
+        <v>422231.6496040998</v>
       </c>
       <c r="J6" t="n">
-        <v>313287.4935492595</v>
+        <v>313287.4935492601</v>
       </c>
       <c r="K6" t="n">
-        <v>434909.9000135225</v>
+        <v>434909.9000135226</v>
       </c>
       <c r="L6" t="n">
-        <v>371762.2461808195</v>
+        <v>371762.2461808197</v>
       </c>
       <c r="M6" t="n">
-        <v>347195.6835073258</v>
+        <v>347195.6835073261</v>
       </c>
       <c r="N6" t="n">
-        <v>438261.4349056741</v>
+        <v>438261.4349056738</v>
       </c>
       <c r="O6" t="n">
-        <v>438261.4349056737</v>
+        <v>438261.4349056738</v>
       </c>
       <c r="P6" t="n">
-        <v>438261.4349056735</v>
+        <v>438261.434905674</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>210.8135928863978</v>
       </c>
       <c r="J2" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="K2" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="M2" t="n">
         <v>152.4833426961503</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183272</v>
       </c>
       <c r="F3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183272</v>
       </c>
       <c r="G3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183272</v>
       </c>
       <c r="H3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="I3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="J3" t="n">
-        <v>697.9352024183279</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="K3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="L3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="M3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="N3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="O3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
       <c r="P3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183281</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="F4" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="G4" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="H4" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="I4" t="n">
-        <v>455.8476900517844</v>
+        <v>455.8476900517848</v>
       </c>
       <c r="J4" t="n">
-        <v>920.6869619795283</v>
+        <v>920.686961979528</v>
       </c>
       <c r="K4" t="n">
         <v>920.6869619795282</v>
@@ -26823,13 +26823,13 @@
         <v>651.2438074691258</v>
       </c>
       <c r="N4" t="n">
-        <v>651.2438074691258</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="O4" t="n">
-        <v>651.2438074691258</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="P4" t="n">
-        <v>651.2438074691258</v>
+        <v>651.2438074691256</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087839</v>
       </c>
       <c r="M2" t="n">
-        <v>73.54877540527185</v>
+        <v>73.54877540527188</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697.935202418328</v>
+        <v>697.9352024183272</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>57.08586058379683</v>
+        <v>57.08586058379734</v>
       </c>
       <c r="J4" t="n">
-        <v>464.8392719277439</v>
+        <v>464.8392719277432</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3186749575852</v>
+        <v>129.3186749575851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="I11" t="n">
-        <v>102.3064548317824</v>
+        <v>102.3064548317825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>53.11115649700825</v>
+      </c>
+      <c r="E12" t="n">
         <v>131.8790255955194</v>
       </c>
-      <c r="C12" t="n">
+      <c r="F12" t="n">
         <v>131.8790255955194</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>131.8790255955194</v>
       </c>
       <c r="H12" t="n">
-        <v>97.73682805041005</v>
+        <v>97.73682805041008</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.70992210628423</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,19 +28217,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>131.8790255955194</v>
       </c>
       <c r="U12" t="n">
-        <v>90.82107860329114</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>131.8790255955194</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D13" t="n">
         <v>131.8790255955194</v>
@@ -28266,10 +28266,10 @@
         <v>131.8790255955194</v>
       </c>
       <c r="I13" t="n">
-        <v>42.44142979564504</v>
+        <v>117.6017921469333</v>
       </c>
       <c r="J13" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683765</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28293,16 +28293,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.703432177808</v>
+        <v>120.7034321778081</v>
       </c>
       <c r="S13" t="n">
-        <v>131.8790255955194</v>
+        <v>56.71866324423283</v>
       </c>
       <c r="T13" t="n">
         <v>131.8790255955194</v>
       </c>
       <c r="U13" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>131.8790255955194</v>
@@ -28345,7 +28345,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3064548317824</v>
+        <v>102.3064548317825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="C15" t="n">
         <v>131.8790255955194</v>
@@ -28415,16 +28415,16 @@
         <v>131.8790255955194</v>
       </c>
       <c r="F15" t="n">
-        <v>131.8790255955194</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>46.16059333902312</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>97.73682805041005</v>
+        <v>97.73682805041008</v>
       </c>
       <c r="I15" t="n">
-        <v>37.70992210628417</v>
+        <v>37.70992210628423</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.950563157984121</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.8790255955194</v>
+        <v>53.1111564970083</v>
       </c>
       <c r="T15" t="n">
         <v>131.8790255955194</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
     </row>
     <row r="16">
@@ -28485,7 +28485,7 @@
         <v>131.8790255955194</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.8790255955194</v>
       </c>
       <c r="D16" t="n">
         <v>131.8790255955194</v>
@@ -28503,10 +28503,10 @@
         <v>131.8790255955194</v>
       </c>
       <c r="I16" t="n">
-        <v>42.44142979564504</v>
+        <v>117.6017921469333</v>
       </c>
       <c r="J16" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683765</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28530,10 +28530,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.703432177808</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.8790255955194</v>
+        <v>45.54306982652153</v>
       </c>
       <c r="T16" t="n">
         <v>131.8790255955194</v>
@@ -28582,7 +28582,7 @@
         <v>210.8135928863978</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3064548317824</v>
+        <v>102.3064548317825</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.842298048575</v>
       </c>
       <c r="H18" t="n">
-        <v>39.7896444865198</v>
+        <v>97.73682805041008</v>
       </c>
       <c r="I18" t="n">
-        <v>37.70992210628417</v>
+        <v>37.70992210628423</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.950563157984121</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.7986844789169</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.113762175742</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>210.8135928863978</v>
       </c>
       <c r="V18" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>22.30662729805073</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28722,13 +28722,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>125.0777959702788</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,13 +28737,13 @@
         <v>166.7324076819667</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0373261473555</v>
+        <v>151.0373261473556</v>
       </c>
       <c r="I19" t="n">
-        <v>117.6017921469332</v>
+        <v>117.6017921469333</v>
       </c>
       <c r="J19" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683765</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.703432177808</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0831261839242</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>210.8135928863978</v>
       </c>
       <c r="U19" t="n">
-        <v>121.0512325225417</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
     </row>
     <row r="20">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>145.0835935054106</v>
+        <v>145.0835935054105</v>
       </c>
       <c r="T20" t="n">
         <v>210.8135928863978</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>153.345102073522</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.842298048575</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>97.73682805041005</v>
@@ -28934,10 +28934,10 @@
         <v>194.113762175742</v>
       </c>
       <c r="U21" t="n">
-        <v>159.8169724804915</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28959,16 +28959,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>127.2593063419204</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.7324076819667</v>
@@ -28980,7 +28980,7 @@
         <v>117.6017921469332</v>
       </c>
       <c r="J22" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683651</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.703432177808</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.0831261839242</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>202.092650305644</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="X22" t="n">
         <v>210.8135928863978</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>145.0835935054106</v>
+        <v>145.0835935054105</v>
       </c>
       <c r="T23" t="n">
         <v>210.8135928863978</v>
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>117.7371842801266</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.842298048575</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.73682805041005</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>37.70992210628417</v>
@@ -29162,16 +29162,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.950563157984121</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>75.12628604782576</v>
+        <v>143.7986844789169</v>
       </c>
       <c r="T24" t="n">
-        <v>194.113762175742</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29196,28 +29196,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>142.2746009747998</v>
       </c>
       <c r="H25" t="n">
         <v>151.0373261473555</v>
       </c>
       <c r="I25" t="n">
-        <v>117.6017921469332</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683651</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,22 +29244,22 @@
         <v>120.703432177808</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0831261839242</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.8135928863978</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>210.8135928863978</v>
       </c>
       <c r="V25" t="n">
-        <v>158.011465101213</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>210.8135928863978</v>
       </c>
       <c r="Y25" t="n">
         <v>210.8135928863978</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="K28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="L28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="M28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="N28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="P28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="R28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="S28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="C31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="D31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="F31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="G31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="H31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="I31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="J31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087784</v>
       </c>
       <c r="K31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="L31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="M31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="N31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="P31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="R31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="S31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="T31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="U31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="V31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="W31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="X31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.93456729087842</v>
+        <v>78.93456729087841</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="C32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="D32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="E32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="F32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="G32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="H32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="I32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="T32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="U32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="V32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087944</v>
       </c>
       <c r="W32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="X32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="C34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="D34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="F34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="G34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="H34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="I34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="J34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="K34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="L34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="M34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="N34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="P34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="R34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="S34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="T34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="U34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="V34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="W34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="X34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.93456729087841</v>
+        <v>78.93456729087838</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0835935054106</v>
+        <v>145.0835935054105</v>
       </c>
       <c r="T35" t="n">
         <v>152.4833426961503</v>
@@ -30144,7 +30144,7 @@
         <v>152.4833426961503</v>
       </c>
       <c r="C37" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30156,16 +30156,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.0373261473555</v>
       </c>
       <c r="I37" t="n">
         <v>117.6017921469332</v>
       </c>
       <c r="J37" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683651</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,22 +30195,22 @@
         <v>152.4833426961503</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="U37" t="n">
-        <v>131.413087829699</v>
+        <v>132.8591043784937</v>
       </c>
       <c r="V37" t="n">
         <v>152.4833426961503</v>
       </c>
       <c r="W37" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>152.4833426961503</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0835935054106</v>
+        <v>145.0835935054105</v>
       </c>
       <c r="T38" t="n">
         <v>152.4833426961503</v>
@@ -30381,10 +30381,10 @@
         <v>152.4833426961503</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>128.9912347005557</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30402,7 +30402,7 @@
         <v>117.6017921469332</v>
       </c>
       <c r="J40" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683651</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30435,10 +30435,10 @@
         <v>152.4833426961503</v>
       </c>
       <c r="U40" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>132.8591043784937</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -30447,7 +30447,7 @@
         <v>152.4833426961503</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.0835935054106</v>
+        <v>145.0835935054105</v>
       </c>
       <c r="T41" t="n">
         <v>152.4833426961503</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>152.4833426961503</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30639,7 +30639,7 @@
         <v>117.6017921469332</v>
       </c>
       <c r="J43" t="n">
-        <v>4.378162588683665</v>
+        <v>4.378162588683651</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,19 +30666,19 @@
         <v>120.703432177808</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.9912347005557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.4833426961503</v>
+        <v>132.8591043784935</v>
       </c>
       <c r="X43" t="n">
         <v>152.4833426961503</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.0835935054106</v>
+        <v>145.0835935054105</v>
       </c>
       <c r="T44" t="n">
         <v>152.4833426961503</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9.805489753489383e-13</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>152.4833426961503</v>
@@ -30861,22 +30861,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>122.6795756955824</v>
+        <v>152.4833426961503</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.0373261473555</v>
       </c>
       <c r="I46" t="n">
         <v>117.6017921469332</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.378162588683651</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>120.703432177808</v>
       </c>
       <c r="S46" t="n">
-        <v>152.4833426961503</v>
+        <v>132.8591043784936</v>
       </c>
       <c r="T46" t="n">
         <v>152.4833426961503</v>
@@ -30912,13 +30912,13 @@
         <v>152.4833426961503</v>
       </c>
       <c r="V46" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>152.4833426961503</v>
       </c>
       <c r="X46" t="n">
-        <v>152.4833426961503</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>152.4833426961503</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963122</v>
       </c>
       <c r="H11" t="n">
-        <v>28.73458850961487</v>
+        <v>28.73458850961483</v>
       </c>
       <c r="I11" t="n">
-        <v>108.1694347386235</v>
+        <v>108.1694347386234</v>
       </c>
       <c r="J11" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075478</v>
       </c>
       <c r="K11" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291268</v>
       </c>
       <c r="L11" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990158</v>
       </c>
       <c r="M11" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538175</v>
       </c>
       <c r="N11" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945052</v>
       </c>
       <c r="O11" t="n">
-        <v>472.7406224581349</v>
+        <v>472.7406224581344</v>
       </c>
       <c r="P11" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271697</v>
       </c>
       <c r="Q11" t="n">
-        <v>302.9915581513657</v>
+        <v>302.9915581513653</v>
       </c>
       <c r="R11" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770261</v>
       </c>
       <c r="S11" t="n">
-        <v>63.93647608083479</v>
+        <v>63.93647608083472</v>
       </c>
       <c r="T11" t="n">
-        <v>12.28225667773359</v>
+        <v>12.28225667773357</v>
       </c>
       <c r="U11" t="n">
-        <v>0.22446157263705</v>
+        <v>0.2244615726370497</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.501219114635649</v>
+        <v>1.501219114635647</v>
       </c>
       <c r="H12" t="n">
-        <v>14.4986161860864</v>
+        <v>14.49861618608639</v>
       </c>
       <c r="I12" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513085</v>
       </c>
       <c r="J12" t="n">
-        <v>141.8322848612567</v>
+        <v>141.8322848612565</v>
       </c>
       <c r="K12" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418448</v>
       </c>
       <c r="L12" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124462</v>
       </c>
       <c r="M12" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179883</v>
       </c>
       <c r="N12" t="n">
-        <v>390.4420713981551</v>
+        <v>390.4420713981546</v>
       </c>
       <c r="O12" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791226</v>
       </c>
       <c r="P12" t="n">
-        <v>286.6670079517846</v>
+        <v>286.6670079517843</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243679</v>
       </c>
       <c r="R12" t="n">
-        <v>93.20727099465901</v>
+        <v>93.2072709946589</v>
       </c>
       <c r="S12" t="n">
-        <v>27.88448662492092</v>
+        <v>27.88448662492089</v>
       </c>
       <c r="T12" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079646</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.258571676492067</v>
+        <v>1.258571676492065</v>
       </c>
       <c r="H13" t="n">
-        <v>11.18984636008402</v>
+        <v>11.18984636008401</v>
       </c>
       <c r="I13" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032503</v>
       </c>
       <c r="J13" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798901</v>
       </c>
       <c r="K13" t="n">
-        <v>146.2231456869874</v>
+        <v>146.2231456869872</v>
       </c>
       <c r="L13" t="n">
-        <v>187.1152836122842</v>
+        <v>187.115283612284</v>
       </c>
       <c r="M13" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704789</v>
       </c>
       <c r="N13" t="n">
-        <v>192.5957911853725</v>
+        <v>192.5957911853723</v>
       </c>
       <c r="O13" t="n">
-        <v>177.893385691806</v>
+        <v>177.8933856918058</v>
       </c>
       <c r="P13" t="n">
-        <v>152.2185234913677</v>
+        <v>152.2185234913675</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3882155651675</v>
+        <v>105.3882155651674</v>
       </c>
       <c r="R13" t="n">
-        <v>56.58995919936146</v>
+        <v>56.5899591993614</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9334718530481</v>
+        <v>21.93347185304808</v>
       </c>
       <c r="T13" t="n">
-        <v>5.377533526829739</v>
+        <v>5.377533526829732</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229456</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963122</v>
       </c>
       <c r="H14" t="n">
-        <v>28.73458850961487</v>
+        <v>28.73458850961483</v>
       </c>
       <c r="I14" t="n">
-        <v>108.1694347386235</v>
+        <v>108.1694347386234</v>
       </c>
       <c r="J14" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075478</v>
       </c>
       <c r="K14" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291268</v>
       </c>
       <c r="L14" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990158</v>
       </c>
       <c r="M14" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538175</v>
       </c>
       <c r="N14" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945052</v>
       </c>
       <c r="O14" t="n">
-        <v>472.7406224581349</v>
+        <v>472.7406224581344</v>
       </c>
       <c r="P14" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271697</v>
       </c>
       <c r="Q14" t="n">
-        <v>302.9915581513657</v>
+        <v>302.9915581513653</v>
       </c>
       <c r="R14" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770261</v>
       </c>
       <c r="S14" t="n">
-        <v>63.93647608083479</v>
+        <v>63.93647608083472</v>
       </c>
       <c r="T14" t="n">
-        <v>12.28225667773359</v>
+        <v>12.28225667773357</v>
       </c>
       <c r="U14" t="n">
-        <v>0.22446157263705</v>
+        <v>0.2244615726370497</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.501219114635649</v>
+        <v>1.501219114635647</v>
       </c>
       <c r="H15" t="n">
-        <v>14.4986161860864</v>
+        <v>14.49861618608639</v>
       </c>
       <c r="I15" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513085</v>
       </c>
       <c r="J15" t="n">
-        <v>141.8322848612567</v>
+        <v>141.8322848612565</v>
       </c>
       <c r="K15" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418448</v>
       </c>
       <c r="L15" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124462</v>
       </c>
       <c r="M15" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179883</v>
       </c>
       <c r="N15" t="n">
-        <v>390.4420713981551</v>
+        <v>390.4420713981546</v>
       </c>
       <c r="O15" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791226</v>
       </c>
       <c r="P15" t="n">
-        <v>286.6670079517846</v>
+        <v>286.6670079517843</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243679</v>
       </c>
       <c r="R15" t="n">
-        <v>93.20727099465901</v>
+        <v>93.2072709946589</v>
       </c>
       <c r="S15" t="n">
-        <v>27.88448662492092</v>
+        <v>27.88448662492089</v>
       </c>
       <c r="T15" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079646</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655579</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.258571676492067</v>
+        <v>1.258571676492065</v>
       </c>
       <c r="H16" t="n">
-        <v>11.18984636008402</v>
+        <v>11.18984636008401</v>
       </c>
       <c r="I16" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032503</v>
       </c>
       <c r="J16" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798901</v>
       </c>
       <c r="K16" t="n">
-        <v>146.2231456869874</v>
+        <v>146.2231456869872</v>
       </c>
       <c r="L16" t="n">
-        <v>187.1152836122842</v>
+        <v>187.115283612284</v>
       </c>
       <c r="M16" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704789</v>
       </c>
       <c r="N16" t="n">
-        <v>192.5957911853725</v>
+        <v>192.5957911853723</v>
       </c>
       <c r="O16" t="n">
-        <v>177.893385691806</v>
+        <v>177.8933856918058</v>
       </c>
       <c r="P16" t="n">
-        <v>152.2185234913677</v>
+        <v>152.2185234913675</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3882155651675</v>
+        <v>105.3882155651674</v>
       </c>
       <c r="R16" t="n">
-        <v>56.58995919936146</v>
+        <v>56.5899591993614</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9334718530481</v>
+        <v>21.93347185304808</v>
       </c>
       <c r="T16" t="n">
-        <v>5.377533526829739</v>
+        <v>5.377533526829732</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229456</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963122</v>
       </c>
       <c r="H17" t="n">
-        <v>28.73458850961487</v>
+        <v>28.73458850961483</v>
       </c>
       <c r="I17" t="n">
-        <v>108.1694347386235</v>
+        <v>108.1694347386234</v>
       </c>
       <c r="J17" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075478</v>
       </c>
       <c r="K17" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291268</v>
       </c>
       <c r="L17" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990158</v>
       </c>
       <c r="M17" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538175</v>
       </c>
       <c r="N17" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945052</v>
       </c>
       <c r="O17" t="n">
-        <v>472.7406224581349</v>
+        <v>472.7406224581344</v>
       </c>
       <c r="P17" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271697</v>
       </c>
       <c r="Q17" t="n">
-        <v>302.9915581513657</v>
+        <v>302.9915581513653</v>
       </c>
       <c r="R17" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770261</v>
       </c>
       <c r="S17" t="n">
-        <v>63.93647608083479</v>
+        <v>63.93647608083472</v>
       </c>
       <c r="T17" t="n">
-        <v>12.28225667773359</v>
+        <v>12.28225667773357</v>
       </c>
       <c r="U17" t="n">
-        <v>0.22446157263705</v>
+        <v>0.2244615726370497</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.501219114635649</v>
+        <v>1.501219114635647</v>
       </c>
       <c r="H18" t="n">
-        <v>14.4986161860864</v>
+        <v>14.49861618608639</v>
       </c>
       <c r="I18" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513085</v>
       </c>
       <c r="J18" t="n">
-        <v>141.8322848612567</v>
+        <v>141.8322848612565</v>
       </c>
       <c r="K18" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418448</v>
       </c>
       <c r="L18" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124462</v>
       </c>
       <c r="M18" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179883</v>
       </c>
       <c r="N18" t="n">
-        <v>390.4420713981551</v>
+        <v>390.4420713981546</v>
       </c>
       <c r="O18" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791226</v>
       </c>
       <c r="P18" t="n">
-        <v>286.6670079517846</v>
+        <v>286.6670079517843</v>
       </c>
       <c r="Q18" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243679</v>
       </c>
       <c r="R18" t="n">
-        <v>93.20727099465901</v>
+        <v>93.2072709946589</v>
       </c>
       <c r="S18" t="n">
-        <v>27.88448662492092</v>
+        <v>27.88448662492089</v>
       </c>
       <c r="T18" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079646</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655579</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.258571676492067</v>
+        <v>1.258571676492065</v>
       </c>
       <c r="H19" t="n">
-        <v>11.18984636008402</v>
+        <v>11.18984636008401</v>
       </c>
       <c r="I19" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032503</v>
       </c>
       <c r="J19" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798901</v>
       </c>
       <c r="K19" t="n">
-        <v>146.2231456869874</v>
+        <v>146.2231456869872</v>
       </c>
       <c r="L19" t="n">
-        <v>187.1152836122842</v>
+        <v>187.115283612284</v>
       </c>
       <c r="M19" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704789</v>
       </c>
       <c r="N19" t="n">
-        <v>192.5957911853725</v>
+        <v>192.5957911853723</v>
       </c>
       <c r="O19" t="n">
-        <v>177.893385691806</v>
+        <v>177.8933856918058</v>
       </c>
       <c r="P19" t="n">
-        <v>152.2185234913677</v>
+        <v>152.2185234913675</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.3882155651675</v>
+        <v>105.3882155651674</v>
       </c>
       <c r="R19" t="n">
-        <v>56.58995919936146</v>
+        <v>56.5899591993614</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9334718530481</v>
+        <v>21.93347185304808</v>
       </c>
       <c r="T19" t="n">
-        <v>5.377533526829739</v>
+        <v>5.377533526829732</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229456</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H20" t="n">
         <v>28.73458850961487</v>
@@ -32470,34 +32470,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J20" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K20" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L20" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M20" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N20" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O20" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P20" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q20" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R20" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S20" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T20" t="n">
         <v>12.28225667773359</v>
@@ -32546,43 +32546,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I21" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J21" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K21" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L21" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M21" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N21" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O21" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P21" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q21" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R21" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S21" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T21" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I22" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J22" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K22" t="n">
         <v>146.2231456869874</v>
@@ -32637,7 +32637,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M22" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N22" t="n">
         <v>192.5957911853725</v>
@@ -32652,16 +32652,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R22" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S22" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T22" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H23" t="n">
         <v>28.73458850961487</v>
@@ -32707,34 +32707,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J23" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K23" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L23" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M23" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N23" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O23" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P23" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q23" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R23" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S23" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T23" t="n">
         <v>12.28225667773359</v>
@@ -32783,43 +32783,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I24" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J24" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K24" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L24" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M24" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N24" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O24" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P24" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q24" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R24" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S24" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T24" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I25" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J25" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K25" t="n">
         <v>146.2231456869874</v>
@@ -32874,7 +32874,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M25" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N25" t="n">
         <v>192.5957911853725</v>
@@ -32889,16 +32889,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R25" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S25" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T25" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H26" t="n">
-        <v>28.73458850961486</v>
+        <v>28.73458850961487</v>
       </c>
       <c r="I26" t="n">
         <v>108.1694347386235</v>
       </c>
       <c r="J26" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K26" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L26" t="n">
-        <v>442.7714952990162</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M26" t="n">
-        <v>492.6686014538179</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N26" t="n">
-        <v>500.6404944945057</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O26" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P26" t="n">
-        <v>403.4731840271701</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q26" t="n">
-        <v>302.9915581513656</v>
+        <v>302.9915581513657</v>
       </c>
       <c r="R26" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S26" t="n">
-        <v>63.93647608083478</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T26" t="n">
         <v>12.28225667773359</v>
@@ -33020,43 +33020,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I27" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J27" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K27" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L27" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M27" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N27" t="n">
-        <v>390.442071398155</v>
+        <v>390.4420713981551</v>
       </c>
       <c r="O27" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P27" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q27" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R27" t="n">
-        <v>93.207270994659</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S27" t="n">
-        <v>27.88448662492091</v>
+        <v>27.88448662492092</v>
       </c>
       <c r="T27" t="n">
-        <v>6.050966519079652</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09876441543655587</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,25 +33093,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.258571676492066</v>
+        <v>1.258571676492067</v>
       </c>
       <c r="H28" t="n">
         <v>11.18984636008402</v>
       </c>
       <c r="I28" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J28" t="n">
-        <v>88.9810175279891</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K28" t="n">
-        <v>146.2231456869873</v>
+        <v>146.2231456869874</v>
       </c>
       <c r="L28" t="n">
         <v>187.1152836122842</v>
       </c>
       <c r="M28" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N28" t="n">
         <v>192.5957911853725</v>
@@ -33126,16 +33126,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R28" t="n">
-        <v>56.58995919936145</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S28" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T28" t="n">
-        <v>5.377533526829738</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06864936417229461</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H29" t="n">
         <v>28.73458850961487</v>
@@ -33181,34 +33181,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J29" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K29" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L29" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M29" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N29" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O29" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P29" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q29" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R29" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S29" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T29" t="n">
         <v>12.28225667773359</v>
@@ -33257,43 +33257,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I30" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J30" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K30" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L30" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M30" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N30" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O30" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P30" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q30" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R30" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S30" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T30" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I31" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J31" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K31" t="n">
         <v>146.2231456869874</v>
@@ -33348,7 +33348,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M31" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N31" t="n">
         <v>192.5957911853725</v>
@@ -33363,16 +33363,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R31" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S31" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T31" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H32" t="n">
         <v>28.73458850961487</v>
@@ -33418,34 +33418,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J32" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K32" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L32" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M32" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N32" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O32" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P32" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q32" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R32" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S32" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T32" t="n">
         <v>12.28225667773359</v>
@@ -33494,43 +33494,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I33" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J33" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K33" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L33" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M33" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N33" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O33" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P33" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q33" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R33" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S33" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T33" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I34" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J34" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K34" t="n">
         <v>146.2231456869874</v>
@@ -33585,7 +33585,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M34" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N34" t="n">
         <v>192.5957911853725</v>
@@ -33600,16 +33600,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R34" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S34" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T34" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H35" t="n">
         <v>28.73458850961487</v>
@@ -33655,34 +33655,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J35" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K35" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L35" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M35" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N35" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O35" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P35" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q35" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R35" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S35" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T35" t="n">
         <v>12.28225667773359</v>
@@ -33731,43 +33731,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I36" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J36" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K36" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L36" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M36" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N36" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O36" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P36" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R36" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S36" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T36" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I37" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J37" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K37" t="n">
         <v>146.2231456869874</v>
@@ -33822,7 +33822,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M37" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N37" t="n">
         <v>192.5957911853725</v>
@@ -33837,16 +33837,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R37" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S37" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T37" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H38" t="n">
         <v>28.73458850961487</v>
@@ -33892,34 +33892,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J38" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K38" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L38" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M38" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N38" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O38" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P38" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q38" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R38" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S38" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T38" t="n">
         <v>12.28225667773359</v>
@@ -33968,43 +33968,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I39" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J39" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K39" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L39" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M39" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N39" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O39" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P39" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R39" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S39" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T39" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I40" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J40" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K40" t="n">
         <v>146.2231456869874</v>
@@ -34059,7 +34059,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M40" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N40" t="n">
         <v>192.5957911853725</v>
@@ -34074,16 +34074,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R40" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S40" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T40" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H41" t="n">
         <v>28.73458850961487</v>
@@ -34129,34 +34129,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J41" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K41" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L41" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M41" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N41" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O41" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P41" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q41" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R41" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S41" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T41" t="n">
         <v>12.28225667773359</v>
@@ -34205,43 +34205,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I42" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J42" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K42" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L42" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M42" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N42" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O42" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P42" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R42" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S42" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T42" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I43" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J43" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K43" t="n">
         <v>146.2231456869874</v>
@@ -34296,7 +34296,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M43" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N43" t="n">
         <v>192.5957911853725</v>
@@ -34311,16 +34311,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R43" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S43" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T43" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.805769657963125</v>
+        <v>2.805769657963126</v>
       </c>
       <c r="H44" t="n">
         <v>28.73458850961487</v>
@@ -34366,34 +34366,34 @@
         <v>108.1694347386235</v>
       </c>
       <c r="J44" t="n">
-        <v>238.136192507548</v>
+        <v>238.1361925075481</v>
       </c>
       <c r="K44" t="n">
-        <v>356.9044221291272</v>
+        <v>356.9044221291273</v>
       </c>
       <c r="L44" t="n">
-        <v>442.7714952990163</v>
+        <v>442.7714952990164</v>
       </c>
       <c r="M44" t="n">
-        <v>492.668601453818</v>
+        <v>492.6686014538181</v>
       </c>
       <c r="N44" t="n">
-        <v>500.6404944945058</v>
+        <v>500.6404944945059</v>
       </c>
       <c r="O44" t="n">
-        <v>472.7406224581349</v>
+        <v>472.740622458135</v>
       </c>
       <c r="P44" t="n">
-        <v>403.4731840271702</v>
+        <v>403.4731840271703</v>
       </c>
       <c r="Q44" t="n">
         <v>302.9915581513657</v>
       </c>
       <c r="R44" t="n">
-        <v>176.2479282770263</v>
+        <v>176.2479282770264</v>
       </c>
       <c r="S44" t="n">
-        <v>63.93647608083479</v>
+        <v>63.9364760808348</v>
       </c>
       <c r="T44" t="n">
         <v>12.28225667773359</v>
@@ -34442,43 +34442,43 @@
         <v>14.4986161860864</v>
       </c>
       <c r="I45" t="n">
-        <v>51.6867107451309</v>
+        <v>51.68671074513091</v>
       </c>
       <c r="J45" t="n">
         <v>141.8322848612567</v>
       </c>
       <c r="K45" t="n">
-        <v>242.4139655418451</v>
+        <v>242.4139655418452</v>
       </c>
       <c r="L45" t="n">
-        <v>325.9554924124465</v>
+        <v>325.9554924124466</v>
       </c>
       <c r="M45" t="n">
-        <v>380.3746853179887</v>
+        <v>380.3746853179888</v>
       </c>
       <c r="N45" t="n">
         <v>390.4420713981551</v>
       </c>
       <c r="O45" t="n">
-        <v>357.178216279123</v>
+        <v>357.1782162791231</v>
       </c>
       <c r="P45" t="n">
         <v>286.6670079517846</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.6293031243681</v>
+        <v>191.6293031243682</v>
       </c>
       <c r="R45" t="n">
-        <v>93.20727099465901</v>
+        <v>93.20727099465903</v>
       </c>
       <c r="S45" t="n">
         <v>27.88448662492092</v>
       </c>
       <c r="T45" t="n">
-        <v>6.050966519079653</v>
+        <v>6.050966519079654</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0987644154365559</v>
+        <v>0.09876441543655591</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.18984636008402</v>
       </c>
       <c r="I46" t="n">
-        <v>37.84868278032507</v>
+        <v>37.84868278032508</v>
       </c>
       <c r="J46" t="n">
-        <v>88.98101752798911</v>
+        <v>88.98101752798912</v>
       </c>
       <c r="K46" t="n">
         <v>146.2231456869874</v>
@@ -34533,7 +34533,7 @@
         <v>187.1152836122842</v>
       </c>
       <c r="M46" t="n">
-        <v>197.2868310704791</v>
+        <v>197.2868310704792</v>
       </c>
       <c r="N46" t="n">
         <v>192.5957911853725</v>
@@ -34548,16 +34548,16 @@
         <v>105.3882155651675</v>
       </c>
       <c r="R46" t="n">
-        <v>56.58995919936146</v>
+        <v>56.58995919936147</v>
       </c>
       <c r="S46" t="n">
         <v>21.9334718530481</v>
       </c>
       <c r="T46" t="n">
-        <v>5.377533526829739</v>
+        <v>5.37753352682974</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06864936417229463</v>
+        <v>0.06864936417229464</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.09028798086175</v>
+        <v>57.09028798086149</v>
       </c>
       <c r="K11" t="n">
-        <v>136.8145710841467</v>
+        <v>285.7220937829233</v>
       </c>
       <c r="L11" t="n">
-        <v>207.0050803290291</v>
+        <v>207.0050803290285</v>
       </c>
       <c r="M11" t="n">
-        <v>262.3223682265453</v>
+        <v>262.3223682265448</v>
       </c>
       <c r="N11" t="n">
-        <v>271.2274308979149</v>
+        <v>271.2274308979143</v>
       </c>
       <c r="O11" t="n">
-        <v>242.6424110364482</v>
+        <v>242.6424110364477</v>
       </c>
       <c r="P11" t="n">
-        <v>321.1477109706746</v>
+        <v>172.2401882719002</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.68586827691618</v>
+        <v>80.68586827691584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>141.0856935349988</v>
+        <v>141.0856935349987</v>
       </c>
       <c r="K12" t="n">
-        <v>124.1085227778449</v>
+        <v>104.5725265674859</v>
       </c>
       <c r="L12" t="n">
-        <v>187.4011126325723</v>
+        <v>187.401112632572</v>
       </c>
       <c r="M12" t="n">
-        <v>238.2406513959704</v>
+        <v>238.24065139597</v>
       </c>
       <c r="N12" t="n">
-        <v>259.1003593148217</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="O12" t="n">
-        <v>214.5819718346786</v>
+        <v>214.5819718346781</v>
       </c>
       <c r="P12" t="n">
-        <v>152.6926005374544</v>
+        <v>242.6444143304978</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.7248167741957</v>
+        <v>51.64752903834639</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>123.9536538611045</v>
+        <v>123.9536538611043</v>
       </c>
       <c r="L13" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726001</v>
       </c>
       <c r="M13" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323195</v>
       </c>
       <c r="N13" t="n">
-        <v>236.7279635646011</v>
+        <v>236.7279635646009</v>
       </c>
       <c r="O13" t="n">
-        <v>202.4785136058457</v>
+        <v>202.4785136058455</v>
       </c>
       <c r="P13" t="n">
-        <v>149.4970827562612</v>
+        <v>149.497082756261</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347301</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.09028798086175</v>
+        <v>57.09028798086149</v>
       </c>
       <c r="K14" t="n">
-        <v>136.8145710841467</v>
+        <v>136.8145710841463</v>
       </c>
       <c r="L14" t="n">
-        <v>207.0050803290291</v>
+        <v>207.0050803290285</v>
       </c>
       <c r="M14" t="n">
-        <v>262.3223682265453</v>
+        <v>262.3223682265448</v>
       </c>
       <c r="N14" t="n">
-        <v>271.2274308979149</v>
+        <v>271.2274308979143</v>
       </c>
       <c r="O14" t="n">
-        <v>242.6424110364482</v>
+        <v>391.5499337352246</v>
       </c>
       <c r="P14" t="n">
-        <v>172.2401882719006</v>
+        <v>172.2401882719002</v>
       </c>
       <c r="Q14" t="n">
-        <v>229.5933909756899</v>
+        <v>80.68586827691584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>141.0856935349988</v>
+        <v>14.99465819458982</v>
       </c>
       <c r="K15" t="n">
-        <v>124.1085227778449</v>
+        <v>104.5725265674859</v>
       </c>
       <c r="L15" t="n">
-        <v>187.4011126325723</v>
+        <v>187.401112632572</v>
       </c>
       <c r="M15" t="n">
-        <v>238.2406513959704</v>
+        <v>238.24065139597</v>
       </c>
       <c r="N15" t="n">
-        <v>259.1003593148217</v>
+        <v>259.1003593148213</v>
       </c>
       <c r="O15" t="n">
-        <v>214.5819718346786</v>
+        <v>360.2090033854477</v>
       </c>
       <c r="P15" t="n">
-        <v>152.6926005374544</v>
+        <v>152.692600537454</v>
       </c>
       <c r="Q15" t="n">
-        <v>261.7248167741957</v>
+        <v>261.7248167741955</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>123.9536538611045</v>
+        <v>123.9536538611043</v>
       </c>
       <c r="L16" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726001</v>
       </c>
       <c r="M16" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323195</v>
       </c>
       <c r="N16" t="n">
-        <v>236.7279635646011</v>
+        <v>236.7279635646009</v>
       </c>
       <c r="O16" t="n">
-        <v>202.4785136058457</v>
+        <v>202.4785136058455</v>
       </c>
       <c r="P16" t="n">
-        <v>149.4970827562612</v>
+        <v>149.497082756261</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347301</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>205.997810679636</v>
+        <v>57.09028798086149</v>
       </c>
       <c r="K17" t="n">
-        <v>136.8145710841467</v>
+        <v>136.8145710841463</v>
       </c>
       <c r="L17" t="n">
-        <v>207.0050803290291</v>
+        <v>207.0050803290285</v>
       </c>
       <c r="M17" t="n">
-        <v>262.3223682265453</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="N17" t="n">
-        <v>271.2274308979149</v>
+        <v>283.6954923552486</v>
       </c>
       <c r="O17" t="n">
-        <v>242.6424110364482</v>
+        <v>242.6424110364477</v>
       </c>
       <c r="P17" t="n">
-        <v>172.2401882719006</v>
+        <v>172.2401882719002</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.68586827691618</v>
+        <v>80.68586827691584</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.99465819458996</v>
+        <v>14.99465819458982</v>
       </c>
       <c r="K18" t="n">
-        <v>104.5725265674861</v>
+        <v>104.5725265674859</v>
       </c>
       <c r="L18" t="n">
-        <v>187.4011126325723</v>
+        <v>187.401112632572</v>
       </c>
       <c r="M18" t="n">
-        <v>238.2406513959704</v>
+        <v>238.24065139597</v>
       </c>
       <c r="N18" t="n">
-        <v>259.1003593148217</v>
+        <v>259.1003593148213</v>
       </c>
       <c r="O18" t="n">
-        <v>214.5819718346786</v>
+        <v>324.2170621907634</v>
       </c>
       <c r="P18" t="n">
-        <v>398.7618294679876</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="Q18" t="n">
-        <v>161.2826193944299</v>
+        <v>51.64752903834639</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>123.9536538611045</v>
+        <v>123.9536538611043</v>
       </c>
       <c r="L19" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726001</v>
       </c>
       <c r="M19" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323195</v>
       </c>
       <c r="N19" t="n">
-        <v>236.7279635646011</v>
+        <v>236.7279635646009</v>
       </c>
       <c r="O19" t="n">
-        <v>202.4785136058457</v>
+        <v>202.4785136058455</v>
       </c>
       <c r="P19" t="n">
-        <v>149.4970827562612</v>
+        <v>149.497082756261</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347301</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.09028798086175</v>
+        <v>57.0902879808618</v>
       </c>
       <c r="K20" t="n">
         <v>136.8145710841467</v>
       </c>
       <c r="L20" t="n">
-        <v>207.0050803290291</v>
+        <v>207.0050803290292</v>
       </c>
       <c r="M20" t="n">
         <v>262.3223682265453</v>
       </c>
       <c r="N20" t="n">
-        <v>271.2274308979149</v>
+        <v>398.7618294679874</v>
       </c>
       <c r="O20" t="n">
-        <v>242.6424110364482</v>
+        <v>242.6424110364483</v>
       </c>
       <c r="P20" t="n">
-        <v>321.1477109706746</v>
+        <v>172.2401882719008</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.68586827691618</v>
+        <v>102.0589924056165</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.99465819458996</v>
+        <v>141.0856935349988</v>
       </c>
       <c r="K21" t="n">
-        <v>104.5725265674861</v>
+        <v>104.5725265674862</v>
       </c>
       <c r="L21" t="n">
-        <v>187.4011126325723</v>
+        <v>187.4011126325724</v>
       </c>
       <c r="M21" t="n">
-        <v>238.2406513959704</v>
+        <v>238.2406513959705</v>
       </c>
       <c r="N21" t="n">
-        <v>259.1003593148217</v>
+        <v>259.1003593148218</v>
       </c>
       <c r="O21" t="n">
-        <v>214.5819718346786</v>
+        <v>234.1179680450361</v>
       </c>
       <c r="P21" t="n">
-        <v>398.7618294679876</v>
+        <v>152.6926005374544</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.2826193944299</v>
+        <v>261.7248167741957</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>123.9536538611045</v>
       </c>
       <c r="L22" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726004</v>
       </c>
       <c r="M22" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323198</v>
       </c>
       <c r="N22" t="n">
         <v>236.7279635646011</v>
@@ -36297,7 +36297,7 @@
         <v>149.4970827562612</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347316</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>57.09028798086175</v>
+        <v>57.0902879808618</v>
       </c>
       <c r="K23" t="n">
-        <v>455.8476900517844</v>
+        <v>136.8145710841467</v>
       </c>
       <c r="L23" t="n">
-        <v>207.0050803290291</v>
+        <v>362.0454137843481</v>
       </c>
       <c r="M23" t="n">
-        <v>262.3223682265453</v>
+        <v>455.8476900517848</v>
       </c>
       <c r="N23" t="n">
-        <v>271.2274308979149</v>
+        <v>271.227430897915</v>
       </c>
       <c r="O23" t="n">
-        <v>298.5537576852448</v>
+        <v>242.6424110364483</v>
       </c>
       <c r="P23" t="n">
-        <v>172.2401882719006</v>
+        <v>172.2401882719008</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.68586827691618</v>
+        <v>80.68586827691624</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141.0856935349988</v>
+        <v>14.99465819458999</v>
       </c>
       <c r="K24" t="n">
-        <v>104.5725265674861</v>
+        <v>104.5725265674862</v>
       </c>
       <c r="L24" t="n">
-        <v>187.4011126325723</v>
+        <v>455.8476900517848</v>
       </c>
       <c r="M24" t="n">
-        <v>238.2406513959704</v>
+        <v>455.8476900517848</v>
       </c>
       <c r="N24" t="n">
-        <v>259.1003593148217</v>
+        <v>259.1003593148218</v>
       </c>
       <c r="O24" t="n">
-        <v>214.5819718346786</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P24" t="n">
-        <v>455.8476900517844</v>
+        <v>248.3802466667051</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.1426663878844</v>
+        <v>51.64752903834665</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>123.9536538611045</v>
       </c>
       <c r="L25" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726004</v>
       </c>
       <c r="M25" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323198</v>
       </c>
       <c r="N25" t="n">
         <v>236.7279635646011</v>
@@ -36534,7 +36534,7 @@
         <v>149.4970827562612</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347316</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>57.09028798086172</v>
+        <v>57.0902879808618</v>
       </c>
       <c r="K26" t="n">
-        <v>460.9599836553114</v>
+        <v>460.9599836553115</v>
       </c>
       <c r="L26" t="n">
-        <v>624.6662948794794</v>
+        <v>624.6662948794797</v>
       </c>
       <c r="M26" t="n">
-        <v>711.8359017193777</v>
+        <v>711.8359017193778</v>
       </c>
       <c r="N26" t="n">
-        <v>708.5743553098989</v>
+        <v>354.1347484565127</v>
       </c>
       <c r="O26" t="n">
-        <v>623.4425922991935</v>
+        <v>623.4425922991936</v>
       </c>
       <c r="P26" t="n">
-        <v>378.2930905857801</v>
+        <v>494.0388964433834</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.68586827691612</v>
+        <v>293.0008589368209</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.0856935349988</v>
+        <v>14.99465819458999</v>
       </c>
       <c r="K27" t="n">
-        <v>369.0377635800647</v>
+        <v>104.5725265674862</v>
       </c>
       <c r="L27" t="n">
-        <v>558.2414579360315</v>
+        <v>187.4011126325724</v>
       </c>
       <c r="M27" t="n">
-        <v>303.7349166144572</v>
+        <v>703.9457151459703</v>
       </c>
       <c r="N27" t="n">
-        <v>259.1003593148217</v>
+        <v>738.4427336583753</v>
       </c>
       <c r="O27" t="n">
-        <v>214.5819718346785</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P27" t="n">
         <v>471.1553691773915</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.7248167741957</v>
+        <v>143.5682615555751</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.55640470219474</v>
+        <v>74.55640470219475</v>
       </c>
       <c r="K28" t="n">
         <v>202.8882211519829</v>
       </c>
       <c r="L28" t="n">
-        <v>293.6398761634787</v>
+        <v>293.6398761634788</v>
       </c>
       <c r="M28" t="n">
         <v>315.8052753231981</v>
@@ -36771,7 +36771,7 @@
         <v>228.4316500471396</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.16073960435155</v>
+        <v>98.16073960435156</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>57.09028798086175</v>
+        <v>226.1869031529356</v>
       </c>
       <c r="K29" t="n">
-        <v>460.9599836553114</v>
+        <v>149.7387522897567</v>
       </c>
       <c r="L29" t="n">
-        <v>624.6662948794794</v>
+        <v>624.6662948794797</v>
       </c>
       <c r="M29" t="n">
         <v>711.8359017193778</v>
       </c>
       <c r="N29" t="n">
-        <v>708.574355309899</v>
+        <v>708.5743553098991</v>
       </c>
       <c r="O29" t="n">
-        <v>623.4425922991935</v>
+        <v>623.4425922991936</v>
       </c>
       <c r="P29" t="n">
-        <v>378.2930905857791</v>
+        <v>494.0388964433834</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.68586827691618</v>
+        <v>80.68586827691624</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>141.0856935349988</v>
+        <v>14.99465819458999</v>
       </c>
       <c r="K30" t="n">
-        <v>369.0377635800647</v>
+        <v>104.5725265674862</v>
       </c>
       <c r="L30" t="n">
-        <v>229.8734038777888</v>
+        <v>558.2414579360316</v>
       </c>
       <c r="M30" t="n">
-        <v>238.2406513959704</v>
+        <v>238.2406513959705</v>
       </c>
       <c r="N30" t="n">
-        <v>259.1003593148217</v>
+        <v>715.1508968862956</v>
       </c>
       <c r="O30" t="n">
-        <v>608.4442911114081</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P30" t="n">
         <v>471.1553691773915</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.55640470219475</v>
+        <v>74.55640470219419</v>
       </c>
       <c r="K31" t="n">
         <v>202.8882211519829</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>226.1869031529355</v>
+        <v>226.1869031529356</v>
       </c>
       <c r="K32" t="n">
-        <v>136.8145710841467</v>
+        <v>355.0849761803023</v>
       </c>
       <c r="L32" t="n">
-        <v>624.6662948794794</v>
+        <v>207.0050803290292</v>
       </c>
       <c r="M32" t="n">
         <v>711.8359017193778</v>
       </c>
       <c r="N32" t="n">
-        <v>708.574355309899</v>
+        <v>708.5743553098991</v>
       </c>
       <c r="O32" t="n">
-        <v>623.4425922991935</v>
+        <v>623.4425922991936</v>
       </c>
       <c r="P32" t="n">
-        <v>294.6480869890893</v>
+        <v>494.0388964433834</v>
       </c>
       <c r="Q32" t="n">
         <v>293.0008589368209</v>
       </c>
       <c r="R32" t="n">
-        <v>26.37881033587666</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>141.0856935349988</v>
       </c>
       <c r="K33" t="n">
-        <v>369.0377635800647</v>
+        <v>104.5725265674862</v>
       </c>
       <c r="L33" t="n">
-        <v>558.2414579360316</v>
+        <v>543.5363229225999</v>
       </c>
       <c r="M33" t="n">
-        <v>238.2406513959704</v>
+        <v>238.2406513959705</v>
       </c>
       <c r="N33" t="n">
-        <v>259.1003593148217</v>
+        <v>738.4427336583753</v>
       </c>
       <c r="O33" t="n">
-        <v>280.0762370531654</v>
+        <v>608.4442911114081</v>
       </c>
       <c r="P33" t="n">
-        <v>471.1553691773915</v>
+        <v>152.6926005374544</v>
       </c>
       <c r="Q33" t="n">
-        <v>261.7248167741957</v>
+        <v>51.64752903834665</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.55640470219474</v>
+        <v>74.55640470219473</v>
       </c>
       <c r="K34" t="n">
         <v>202.8882211519829</v>
@@ -37245,7 +37245,7 @@
         <v>228.4316500471396</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.16073960435155</v>
+        <v>98.16073960435153</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>226.1869031529355</v>
+        <v>226.1869031529356</v>
       </c>
       <c r="K35" t="n">
         <v>136.8145710841467</v>
       </c>
       <c r="L35" t="n">
-        <v>207.0050803290291</v>
+        <v>624.6662948794797</v>
       </c>
       <c r="M35" t="n">
-        <v>651.2438074691258</v>
+        <v>443.398499904152</v>
       </c>
       <c r="N35" t="n">
-        <v>271.2274308979149</v>
+        <v>271.227430897915</v>
       </c>
       <c r="O35" t="n">
-        <v>272.7659901174072</v>
+        <v>623.4425922991936</v>
       </c>
       <c r="P35" t="n">
-        <v>494.0388964433833</v>
+        <v>172.2401882719008</v>
       </c>
       <c r="Q35" t="n">
-        <v>293.0008589368209</v>
+        <v>80.68586827691624</v>
       </c>
       <c r="R35" t="n">
-        <v>26.37881033587666</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>141.0856935349988</v>
       </c>
       <c r="K36" t="n">
-        <v>369.0377635800647</v>
+        <v>369.0377635800648</v>
       </c>
       <c r="L36" t="n">
         <v>558.2414579360316</v>
       </c>
       <c r="M36" t="n">
-        <v>303.7349166144572</v>
+        <v>440.1315248359394</v>
       </c>
       <c r="N36" t="n">
-        <v>259.1003593148217</v>
+        <v>651.2438074691258</v>
       </c>
       <c r="O36" t="n">
-        <v>214.5819718346786</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P36" t="n">
-        <v>471.1553691773915</v>
+        <v>152.6926005374544</v>
       </c>
       <c r="Q36" t="n">
-        <v>261.7248167741957</v>
+        <v>51.64752903834665</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>123.9536538611045</v>
       </c>
       <c r="L37" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726004</v>
       </c>
       <c r="M37" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323198</v>
       </c>
       <c r="N37" t="n">
         <v>236.7279635646011</v>
@@ -37482,7 +37482,7 @@
         <v>149.4970827562612</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347316</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>226.1869031529355</v>
+        <v>57.0902879808618</v>
       </c>
       <c r="K38" t="n">
-        <v>460.9599836553114</v>
+        <v>136.8145710841467</v>
       </c>
       <c r="L38" t="n">
-        <v>207.0050803290291</v>
+        <v>207.0050803290292</v>
       </c>
       <c r="M38" t="n">
-        <v>262.3223682265453</v>
+        <v>623.7611427195883</v>
       </c>
       <c r="N38" t="n">
-        <v>271.2274308979149</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="O38" t="n">
-        <v>363.9208271246995</v>
+        <v>623.4425922991936</v>
       </c>
       <c r="P38" t="n">
-        <v>494.0388964433833</v>
+        <v>172.2401882719008</v>
       </c>
       <c r="Q38" t="n">
-        <v>293.0008589368209</v>
+        <v>80.68586827691624</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.99465819458996</v>
+        <v>141.0856935349988</v>
       </c>
       <c r="K39" t="n">
-        <v>104.5725265674861</v>
+        <v>369.0377635800648</v>
       </c>
       <c r="L39" t="n">
-        <v>343.8231283791037</v>
+        <v>558.2414579360316</v>
       </c>
       <c r="M39" t="n">
-        <v>651.2438074691258</v>
+        <v>238.2406513959705</v>
       </c>
       <c r="N39" t="n">
-        <v>651.2438074691258</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="O39" t="n">
-        <v>608.4442911114081</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P39" t="n">
-        <v>152.6926005374544</v>
+        <v>354.583473977424</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.64752903834659</v>
+        <v>51.64752903834665</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>123.9536538611045</v>
       </c>
       <c r="L40" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726004</v>
       </c>
       <c r="M40" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323198</v>
       </c>
       <c r="N40" t="n">
         <v>236.7279635646011</v>
@@ -37719,7 +37719,7 @@
         <v>149.4970827562612</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347316</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>57.09028798086175</v>
+        <v>57.0902879808618</v>
       </c>
       <c r="K41" t="n">
-        <v>460.9599836553114</v>
+        <v>460.9599836553115</v>
       </c>
       <c r="L41" t="n">
-        <v>207.0050803290291</v>
+        <v>207.0050803290292</v>
       </c>
       <c r="M41" t="n">
-        <v>262.3223682265453</v>
+        <v>526.3185891509926</v>
       </c>
       <c r="N41" t="n">
-        <v>271.2274308979149</v>
+        <v>271.227430897915</v>
       </c>
       <c r="O41" t="n">
-        <v>623.4425922991935</v>
+        <v>242.6424110364483</v>
       </c>
       <c r="P41" t="n">
-        <v>494.0388964433833</v>
+        <v>494.0388964433834</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.196898598524</v>
+        <v>293.0008589368209</v>
       </c>
       <c r="R41" t="n">
-        <v>26.37881033587666</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>141.0856935349988</v>
       </c>
       <c r="K42" t="n">
-        <v>369.0377635800647</v>
+        <v>369.0377635800648</v>
       </c>
       <c r="L42" t="n">
-        <v>187.4011126325723</v>
+        <v>187.4011126325724</v>
       </c>
       <c r="M42" t="n">
-        <v>238.2406513959704</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="N42" t="n">
-        <v>301.5726505600383</v>
+        <v>282.4318137636129</v>
       </c>
       <c r="O42" t="n">
-        <v>608.4442911114081</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P42" t="n">
         <v>471.1553691773915</v>
@@ -37941,10 +37941,10 @@
         <v>123.9536538611045</v>
       </c>
       <c r="L43" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726004</v>
       </c>
       <c r="M43" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323198</v>
       </c>
       <c r="N43" t="n">
         <v>236.7279635646011</v>
@@ -37956,7 +37956,7 @@
         <v>149.4970827562612</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347316</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>226.1869031529355</v>
+        <v>57.0902879808618</v>
       </c>
       <c r="K44" t="n">
-        <v>460.9599836553114</v>
+        <v>460.9599836553115</v>
       </c>
       <c r="L44" t="n">
-        <v>261.1607653461825</v>
+        <v>624.6662948794797</v>
       </c>
       <c r="M44" t="n">
-        <v>651.2438074691258</v>
+        <v>430.4560827720247</v>
       </c>
       <c r="N44" t="n">
-        <v>271.2274308979149</v>
+        <v>271.227430897915</v>
       </c>
       <c r="O44" t="n">
-        <v>242.6424110364482</v>
+        <v>242.6424110364483</v>
       </c>
       <c r="P44" t="n">
-        <v>172.2401882719006</v>
+        <v>172.2401882719008</v>
       </c>
       <c r="Q44" t="n">
         <v>293.0008589368209</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.37881033587669</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>141.0856935349988</v>
       </c>
       <c r="K45" t="n">
-        <v>369.0377635800647</v>
+        <v>104.5725265674862</v>
       </c>
       <c r="L45" t="n">
         <v>558.2414579360316</v>
       </c>
       <c r="M45" t="n">
-        <v>303.7349166144576</v>
+        <v>386.1339932085801</v>
       </c>
       <c r="N45" t="n">
-        <v>259.1003593148217</v>
+        <v>651.2438074691256</v>
       </c>
       <c r="O45" t="n">
-        <v>214.5819718346786</v>
+        <v>214.5819718346787</v>
       </c>
       <c r="P45" t="n">
         <v>471.1553691773915</v>
       </c>
       <c r="Q45" t="n">
-        <v>261.7248167741957</v>
+        <v>51.64752903834665</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>123.9536538611045</v>
       </c>
       <c r="L46" t="n">
-        <v>214.7053088726003</v>
+        <v>214.7053088726004</v>
       </c>
       <c r="M46" t="n">
-        <v>236.8707080323197</v>
+        <v>236.8707080323198</v>
       </c>
       <c r="N46" t="n">
         <v>236.7279635646011</v>
@@ -38193,7 +38193,7 @@
         <v>149.4970827562612</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.22617231347314</v>
+        <v>19.22617231347316</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
